--- a/Rest.xlsx
+++ b/Rest.xlsx
@@ -1,53 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C3191E-E2C1-4895-A376-62725F48898B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB26C48E-771C-4098-832E-DB92B86590F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="12" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="33" r:id="rId1"/>
-    <sheet name="GKToday" sheetId="40" r:id="rId2"/>
-    <sheet name="PtCurrent" sheetId="39" r:id="rId3"/>
-    <sheet name="Daily Hindu" sheetId="35" r:id="rId4"/>
-    <sheet name="Quora" sheetId="34" r:id="rId5"/>
-    <sheet name="History Vedic" sheetId="38" r:id="rId6"/>
-    <sheet name="Kurukshetra" sheetId="37" r:id="rId7"/>
-    <sheet name="Yojana" sheetId="36" r:id="rId8"/>
-    <sheet name="AncientHistory" sheetId="1" r:id="rId9"/>
-    <sheet name="Hist-Spectrum" sheetId="2" r:id="rId10"/>
-    <sheet name="PostIndependence-Nitin Sangwan" sheetId="4" r:id="rId11"/>
-    <sheet name="WorldHist- VisianIAS" sheetId="3" r:id="rId12"/>
-    <sheet name="Art-Cult - Nitin Singhania" sheetId="5" r:id="rId13"/>
-    <sheet name="Art- Class11" sheetId="6" r:id="rId14"/>
-    <sheet name="Geo NCERT11&amp;12" sheetId="7" r:id="rId15"/>
-    <sheet name="Geo - GC Leong" sheetId="8" r:id="rId16"/>
-    <sheet name="Geo- Mrunal" sheetId="9" r:id="rId17"/>
-    <sheet name="Eng" sheetId="10" r:id="rId18"/>
-    <sheet name="Geo- PMF" sheetId="11" r:id="rId19"/>
-    <sheet name="Geo - Atlas" sheetId="12" r:id="rId20"/>
-    <sheet name="Polity- PIB and PRS" sheetId="13" r:id="rId21"/>
-    <sheet name="Polity- laxmi" sheetId="14" r:id="rId22"/>
-    <sheet name="Polity- ARC report" sheetId="15" r:id="rId23"/>
-    <sheet name="Polity - Vision Ias" sheetId="16" r:id="rId24"/>
-    <sheet name="Goverenance- ARC report" sheetId="17" r:id="rId25"/>
-    <sheet name="Governance- Vision IAS" sheetId="18" r:id="rId26"/>
-    <sheet name="Social justice - Niti Ayog Acti" sheetId="19" r:id="rId27"/>
-    <sheet name="Budget and Economic survey" sheetId="20" r:id="rId28"/>
-    <sheet name="Inter Relations - Vision IAS" sheetId="21" r:id="rId29"/>
-    <sheet name="Inter-relations - MEA website" sheetId="22" r:id="rId30"/>
-    <sheet name="Economy - NCERT 9 to 12" sheetId="23" r:id="rId31"/>
-    <sheet name="Economy - Ramesh Singh" sheetId="24" r:id="rId32"/>
-    <sheet name="Economy - Mrunal" sheetId="25" r:id="rId33"/>
-    <sheet name="Environment - Shankar IAS" sheetId="26" r:id="rId34"/>
-    <sheet name="Internal Security - Ashok kumar" sheetId="27" r:id="rId35"/>
-    <sheet name="Disaster- ARC" sheetId="28" r:id="rId36"/>
-    <sheet name="Disaster- NDMA" sheetId="29" r:id="rId37"/>
-    <sheet name="Sci and Tech - Vision IAS" sheetId="30" r:id="rId38"/>
-    <sheet name="Ethics -Arc" sheetId="31" r:id="rId39"/>
-    <sheet name="Ethics - Lexicon" sheetId="32" r:id="rId40"/>
+    <sheet name="Questions" sheetId="41" r:id="rId2"/>
+    <sheet name="GKToday" sheetId="40" r:id="rId3"/>
+    <sheet name="PtCurrent" sheetId="39" r:id="rId4"/>
+    <sheet name="Daily Hindu" sheetId="35" r:id="rId5"/>
+    <sheet name="Quora" sheetId="34" r:id="rId6"/>
+    <sheet name="History Vedic" sheetId="38" r:id="rId7"/>
+    <sheet name="Kurukshetra" sheetId="37" r:id="rId8"/>
+    <sheet name="Yojana" sheetId="36" r:id="rId9"/>
+    <sheet name="AncientHistory" sheetId="1" r:id="rId10"/>
+    <sheet name="Hist-Spectrum" sheetId="2" r:id="rId11"/>
+    <sheet name="PostIndependence-Nitin Sangwan" sheetId="4" r:id="rId12"/>
+    <sheet name="WorldHist- VisianIAS" sheetId="3" r:id="rId13"/>
+    <sheet name="Art-Cult - Nitin Singhania" sheetId="5" r:id="rId14"/>
+    <sheet name="Art- Class11" sheetId="6" r:id="rId15"/>
+    <sheet name="Geo NCERT11&amp;12" sheetId="7" r:id="rId16"/>
+    <sheet name="Geo - GC Leong" sheetId="8" r:id="rId17"/>
+    <sheet name="Geo- Mrunal" sheetId="9" r:id="rId18"/>
+    <sheet name="Eng" sheetId="10" r:id="rId19"/>
+    <sheet name="Geo- PMF" sheetId="11" r:id="rId20"/>
+    <sheet name="Geo - Atlas" sheetId="12" r:id="rId21"/>
+    <sheet name="Polity- PIB and PRS" sheetId="13" r:id="rId22"/>
+    <sheet name="Polity- laxmi" sheetId="14" r:id="rId23"/>
+    <sheet name="Polity- ARC report" sheetId="15" r:id="rId24"/>
+    <sheet name="Polity - Vision Ias" sheetId="16" r:id="rId25"/>
+    <sheet name="Goverenance- ARC report" sheetId="17" r:id="rId26"/>
+    <sheet name="Governance- Vision IAS" sheetId="18" r:id="rId27"/>
+    <sheet name="Social justice - Niti Ayog Acti" sheetId="19" r:id="rId28"/>
+    <sheet name="Budget and Economic survey" sheetId="20" r:id="rId29"/>
+    <sheet name="Inter Relations - Vision IAS" sheetId="21" r:id="rId30"/>
+    <sheet name="Inter-relations - MEA website" sheetId="22" r:id="rId31"/>
+    <sheet name="Economy - NCERT 9 to 12" sheetId="23" r:id="rId32"/>
+    <sheet name="Economy - Ramesh Singh" sheetId="24" r:id="rId33"/>
+    <sheet name="Economy - Mrunal" sheetId="25" r:id="rId34"/>
+    <sheet name="Environment - Shankar IAS" sheetId="26" r:id="rId35"/>
+    <sheet name="Internal Security - Ashok kumar" sheetId="27" r:id="rId36"/>
+    <sheet name="Disaster- ARC" sheetId="28" r:id="rId37"/>
+    <sheet name="Disaster- NDMA" sheetId="29" r:id="rId38"/>
+    <sheet name="Sci and Tech - Vision IAS" sheetId="30" r:id="rId39"/>
+    <sheet name="Ethics -Arc" sheetId="31" r:id="rId40"/>
+    <sheet name="Ethics - Lexicon" sheetId="32" r:id="rId41"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="245">
   <si>
     <t>Date</t>
   </si>
@@ -85,9 +86,6 @@
     <t>link</t>
   </si>
   <si>
-    <t xml:space="preserve">Credo , creed, credence, disingenuous, indefatigable, credulous, gullible, shrewd, inventive, ingenuous, expedient, conceal, perspicacity, acumen, perspicuous, prospect, pungent, specious. </t>
-  </si>
-  <si>
     <t>Economy-Mrunal</t>
   </si>
   <si>
@@ -106,9 +104,6 @@
     <t>https://www.youtube.com/watch?v=HQttscpAjKw</t>
   </si>
   <si>
-    <t>Quora</t>
-  </si>
-  <si>
     <t>History Spectrum</t>
   </si>
   <si>
@@ -208,36 +203,12 @@
     <t>History - Vedic</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=dSc2SrY2ufE&amp;list=PLt5ECl9fjK-uTZN_cLuXFi1VNkozKQVVS&amp;index=12</t>
-  </si>
-  <si>
-    <t>Geophysical phenomenon- volcanism, Distribution of volcanos, Hot spot volcanos Basaltic vs andesite volcano, Intrusive landforms - batholith, dyke, sill, lacolith, phocolith, lopolith. Extrusive landforms - lava plateus, cones - Shield, cinder, composite. Parasite cones, fumoroles, crater, caldera, lavaplugs, geysers, hot springs. Geo-thermal energy</t>
-  </si>
-  <si>
-    <t>youtube.com/watch?v=WUCrFMD5j2w&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=35</t>
-  </si>
-  <si>
-    <t>British expansion policy - Conquest - Battle of Plassey, Buxsar, Mysore wars(4), Marathas, Sikhs, French. Subsiadary alliance - Nizam, Awadh Tanjore, Jodhpur, Doctrine of Lapse - Jhansi, Satara, Sambalpur, Udaypur. Misc- Mal Administration - Awadh , Dual government etc.</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AKHrn3pFRCg&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=36</t>
-  </si>
-  <si>
-    <t>Revolt of 1857: Immediate cause - Nana pension, Awadh &amp; jhansi annexed, Military low ranks and salaries, new rifles. Mangal Pandey 34th native infantry at Barrakpur, Sepoy mutany at Meerut. Social Causes: Raja Ram Mohan Roy - Brahmo Samaj, Atmiya Sabha, Sati, Samvad Kaumudi. Dayanand Saraswati - Arya Samaj, "Go back to the Vedas" Ved Bhasha, Ved bhasha Bhumika, Satyarth Prakash. Swami Vivekanand - Ram krishn mission, Udhbodhan and prabhudya</t>
-  </si>
-  <si>
     <t>MEP visit to j&amp;k political blunder? Free trade over fair trade - Paul krugman and Milton friedman</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=VCp-GHHgAss</t>
   </si>
   <si>
-    <t xml:space="preserve">Fundamental rights:  Equality, freedom, protection exploitation, religion, culture and education, constitutional remedies. </t>
-  </si>
-  <si>
-    <t>Aquatic Ecosystem: Aquatic organisms- Neuston, Periphyton, Plankton, Nekton, Benthos. Factors limiting productivity of aquativ habitat- sunlight, Dissolved oxygen, Transperancy, Temperature. Eutrophication and it's effects and mitigation, Algal blooms. Wetland ecosystem, National wetland conservation programme, Ramsar convention, Montreux record. Eusatries. Mangroves. Coral reefs, coral bleeching. Coastal regulation zone and Island protection zone. National coastal zone management authority, State coastal zone management authority.</t>
-  </si>
-  <si>
     <t>banking transation: e-Kuber, core banking solutions, card types, ATM types, NEFT, RTGS, ECS, NACH</t>
   </si>
   <si>
@@ -247,33 +218,18 @@
     <t>BHIM, UPI, IMPS, USSD, NPCi and Mobile banking API, Direct carrier billing, Payment and settlement system act 2007</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=NPI_k1FAbQs&amp;list=PLt5ECl9fjK-uTZN_cLuXFi1VNkozKQVVS&amp;index=13</t>
-  </si>
-  <si>
-    <t>Earthquake types and reasons. Shallofocus, intermediate focus , deep focus. Reasons - Divergent boundry , convergent boundry of plates, Transverse boundry, Craton - re-emergence of old factures,Human induced - Reservior induced seicmicity(RIS), Deep mining, Nuclear tests. TSUNAMI - speed 700kmph, Wavelength - 150km, with coast approaching wavelength decreases and height increases, 4th and 8th wave most destructive, time lapse between subsequent waves - 15-50 min. Indian preparedness - Tsunami early warning system , Headquarter - Indian national centre for ocean information science, Hyderabad, real time sea level sensors with bottom pressure recorder, High Frequency radars for coastal currents, Coastal tide gauge stations</t>
-  </si>
-  <si>
     <t>post 370 changes in foreign policy - diplomatic missions sent , varied results, UN security council held closed meeting, European parliament held discussion, Angela markel's unsustainable remark, UN Human rights council Pak failed to get enough votes, UN general assembly, china malasia and turkey, thre tenets - 1. JK issue intrernationalised 2. Hyphenation with Pak. 3. Mediation by third party. Signals even from friends, Spill over effect - Brand India as responsible democracy Pluralistic country respected as rational power. other issues being combined as No first use of Nukes , NRC, POK getting back with military</t>
   </si>
   <si>
     <t xml:space="preserve">Prisons in india - 115% avg occupancy rate - Crime records bureau. Delhi UP Sikkim Chhatisgadh &gt; 140%. In 2007 - 140%, Tamilnadu - 61%. More than 68% incarcerated are under trails. Law commision - Inconsistanceis in Bail, expedating trails, freeing early, avoid needless arrest. </t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=42kPviUJGts&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=37</t>
-  </si>
-  <si>
-    <t>Governors and viceroys of british</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ryNXnY8Sje0&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=8</t>
   </si>
   <si>
     <t>GK Today</t>
   </si>
   <si>
-    <t>PT current affairs</t>
-  </si>
-  <si>
     <t>Cash vs Digital, challenges to digital - POS , MDR, KYC, Interoperability, scams and regulatory structure.</t>
   </si>
   <si>
@@ -295,45 +251,9 @@
     <t>Armaco Saudi IPO,  Snooping Authorise hold to account, Greater Nagalim - Naga club, NNC,NSCN(nationalist socialist council of Nagaland)</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=G1LnI2Qj6fk&amp;list=PLt5ECl9fjK-uTZN_cLuXFi1VNkozKQVVS&amp;index=14</t>
-  </si>
-  <si>
-    <t>Plains and Important rivers : Yzngtze, euprates - tigris, Amazon, Mississipi-misouri, Murray-darling</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DPKrwa4CT1o&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=9&amp;t=0s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=aqNiGBkKezs&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=9</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9iknh4UrZ_Y&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=14</t>
-  </si>
-  <si>
-    <t>Indian national congress. Moderate phase, AO Hume, Bombay tejpal Sanskrit college, WC Banerjea, Dada Bhai Navroji, Gopal krishna Gokhale, Ranade, SN Banerjea, Badruddin Taybji</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Wkje33EsG_g&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mountains - Fold and block. Grabben and Horst. Examples of both mountain type. </t>
-  </si>
-  <si>
     <t>Police protest in Delhi and Police reforms, Economic slowdown will reduce carbon burdon on India, India lungs under extreame stress - morbidity - Acute respiratory infection is highest 69%,  Food safety and standards authority of India proposes ban on Ad, sale of junk food in schools</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=IEHJww486M0&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=39</t>
-  </si>
-  <si>
-    <t>Partition of bengal, muslim league, surat split, delhi capital, revoked partition, lucknow pact, LAL-BAL-PAL</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=b4Vzwr_6peY&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=40</t>
-  </si>
-  <si>
-    <t>Champaran, Ahmedabad, kheda satyagrah, Govt of India act 1919 Montengue-chelmsford reform, rowlatt act, 13th April - Jalianwalabagh, Rabindranath returned knighthood, Khilafat movement, 1920- Non co-operative movement, 1922- swaraj party in Congress, 1927- Simaon commision, 1929 - lahore session, 1930 - Civil disobidience movment - dandi march, 1st round table, Gandhi-Irwin pact, 1931- 2nd round table Gandhi+Sarojini Naidu, 1932- Macdownald communal award, Poona pact, 3rd round table, 1935 Govt of India act, 1937 elections, 1940 August offer - Dominion status, 1942 Cripps mission, Quit India movement, 1945 Shimla conference, Wavell plan, 1946 Cabinet mission plan - Alexander lawrence cripps, 1947 Mountbatten plan</t>
-  </si>
-  <si>
     <t>At the altar of national security, the china factor in India's RCEP move</t>
   </si>
   <si>
@@ -343,27 +263,12 @@
     <t>Digital payment - Govt is not a role model, fragmented initiative, DIPYAN, Financial literacy , Budget provision, presumtive taxation, Lucky grahak, Conclusion</t>
   </si>
   <si>
-    <t>continue fundamental rights - Right Life and personal liberty, Right to Education, Right to protection against arrest and detention</t>
-  </si>
-  <si>
     <t>History Ancient</t>
   </si>
   <si>
-    <t>Significance of Ancient indian history, Modern historians</t>
-  </si>
-  <si>
-    <t>Plataues of the world, Formation - lava, wind, glaciear, time of mountain formation</t>
-  </si>
-  <si>
     <t>IIP report - 3 sectors, Suranga bawdi, New national water policy,</t>
   </si>
   <si>
-    <t>Continued modern Historians</t>
-  </si>
-  <si>
-    <t>Continue fundamental rights - cultural and educational rights, right against exploitation, Right to constitutional remedy, Right to proprty, Arm forces article 33, Martail law, Emergency, Critisim and features</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=_4n46Nwvs_M&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=10</t>
   </si>
   <si>
@@ -373,87 +278,24 @@
     <t>urban areas require different approach to end open defecation, On the loose justice misunderstood, Treate the disease.</t>
   </si>
   <si>
-    <t>islands types, coral reefs , marine pollution</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tq26g_ByQGI&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=13</t>
-  </si>
-  <si>
-    <t>https://www.drishtiias.com/daily-updates/daily-news-editorials/nia-amendment-bill-2019</t>
-  </si>
-  <si>
-    <t>NIA Amendment</t>
-  </si>
-  <si>
-    <t>https://iasscore.in/current-affairs/mains/national-investigation-agency-amendment-bill-2019</t>
-  </si>
-  <si>
     <t>Only appropriate data,Act east- north east: Border of hope</t>
   </si>
   <si>
-    <t>Ocean resources, polymatalic nodules, petrolium reserves</t>
-  </si>
-  <si>
-    <t>Ocean currents</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=_-_d_lAO4IY&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=15</t>
-  </si>
-  <si>
-    <t>Nature of resources and historical construction</t>
-  </si>
-  <si>
-    <t>Geographical setting</t>
-  </si>
-  <si>
-    <t>Ecology and environment</t>
-  </si>
-  <si>
-    <t>The linguistic background</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soil pollution, Noise pollution, Radioactive polution, </t>
-  </si>
-  <si>
     <t>Bhutan levy, Cartosat-3, Pradhan matri matru vandana yojana, BRICS on the ball?</t>
   </si>
   <si>
     <t>NATGRID, House not in order, Iran on the boil, turning policy focus on child undernutrition</t>
   </si>
   <si>
-    <t>Paleilithic age, old and new stone age, mesolithic, neolithic</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=LUJSr7DnWlM&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=16</t>
-  </si>
-  <si>
-    <t>Tides - 12.26 , ebb, flow, syzygy, spring tide, neap tide, tidal bores</t>
-  </si>
-  <si>
     <t>M0, M1, M2, M3, M4, Multiplier effect</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=9Limo3CUVgM&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=11</t>
   </si>
   <si>
-    <t>Temperature difference in ocean</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=HWWUhuN15K0&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=18</t>
-  </si>
-  <si>
-    <t>Ocean salinity</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=-DsJ-T6AuTM&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=12</t>
   </si>
   <si>
-    <t xml:space="preserve">climatology - History, Layers, </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=7e8CS63p6XE&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=19</t>
-  </si>
-  <si>
     <t>SLR CRR Increamental CRR</t>
   </si>
   <si>
@@ -469,99 +311,30 @@
     <t>bank rate, repo rate, Reverse repo rate, MSF, Policy corridor</t>
   </si>
   <si>
-    <t>Fundametal duties</t>
-  </si>
-  <si>
-    <t>chalcolith</t>
-  </si>
-  <si>
-    <t>IVC</t>
-  </si>
-  <si>
     <t xml:space="preserve">Monetory policy committee, </t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=GjOeS2pbjTc&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=15</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=88pr5vq5NUk&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=20</t>
-  </si>
-  <si>
-    <t>Heat Budget, Albedo, Convection and adjecion, Adiabatic lapse rate, Comditional Absolute stability and instability, Temperature inversion - fog Frost Stabality, Tropopause, Winter night, valley, Mist -&gt; Haze -&gt; fog -&gt; Smog, photochemical smog</t>
-  </si>
-  <si>
-    <t>Details of Harrappa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">368 - Amendment to constitution </t>
-  </si>
-  <si>
-    <t>Basic structure of constitution, Parlimentary system - 74</t>
-  </si>
-  <si>
-    <t>End of Harrappa</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=u8QKLC2cReI&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=16</t>
   </si>
   <si>
     <t>Selective Credit control, Credit authorization scheme, Priority sector, Credit guaranty cooperation of India, Priority sector Lending PSL- Banks, NABARD and SIDBI, PSL certificate, Interest Subversion scheme, PACS &lt;-&gt; DCCB, March Rush.</t>
   </si>
   <si>
-    <t>Start of Vedic culture</t>
-  </si>
-  <si>
-    <t>Federal structure</t>
-  </si>
-  <si>
-    <t>Plastic, thermal, Soldi waste, Bioremediation</t>
-  </si>
-  <si>
-    <t>Rain types, pressure belts, cells, wind types - planetary and dynamic</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=JtqH490JcC0&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=21</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=HLyyLG1NuGc&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=17</t>
   </si>
   <si>
     <t>Consumer credit control - Nano, Loan to value ratio(margin ratio) - Twinkle khanna, Moral suasion, Direct action</t>
   </si>
   <si>
-    <t>Union list state list and concurrent list</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yOTKISPGyqA&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=22</t>
-  </si>
-  <si>
-    <t>Upper tropospheric winds (geo-strophic winds) Rossby waves, Jet streams, Temporary jet streams- Tropical easterly, Somali Jet, Polar Night Jet, Air mass - cold and warm front</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=CtbrBaVwTzM&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=18</t>
   </si>
   <si>
     <t>Base rate, Real intereset rate, Marginal cost of fucnds based lending rate, Sttuctural problems in Deposits and less borrowing, Fiscal repression</t>
   </si>
   <si>
-    <t>Completed later vedic period (PGW)</t>
-  </si>
-  <si>
-    <t>Temperate cyclones, Tropical cyclons</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=p3Dseym4Le8&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=23</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GPitAk75hpo&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=24</t>
-  </si>
-  <si>
-    <t>Thunderstorm - thermal, orographic, cold front. Tornedo, Polar vortex, Cold wave, Nitric + CFC = Chlorine. Chlorine + Ozone = Depletion of Ozone. Montreal Protocol 87, Walker cell , El Nino Southern Oscillations (ENSO) , West Pacific Pool, El Nino year, La Nina</t>
-  </si>
-  <si>
-    <t>Financial relation Center - state</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=y_Q_Jeos2xc&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=19</t>
   </si>
   <si>
@@ -574,225 +347,60 @@
     <t>BASEL-III , CRAR, CCCB, PCA - Categories</t>
   </si>
   <si>
-    <t>Jainism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">State-state, water dispute, Inter state councils, Zonal councils, Commerace, trade </t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=DSV7pITXHaI&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=25</t>
-  </si>
-  <si>
-    <t>12 climatic regions of the world</t>
-  </si>
-  <si>
-    <t>Tundra , taiga china type</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9UG56TwViLc&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=27</t>
-  </si>
-  <si>
-    <t>Buddha time Society</t>
-  </si>
-  <si>
-    <t>Emergency prov</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=zrCXNhY8XSE&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=22</t>
   </si>
   <si>
     <t>NPA - 3 stages, impacted sectors</t>
   </si>
   <si>
-    <t>Maurya Empire</t>
-  </si>
-  <si>
-    <t>Renewable energy</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=IO1Ug6lSVM4&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=28</t>
-  </si>
-  <si>
-    <t>History of indian sub continent, Himalaya, Trans Himalaya and Purvanchal</t>
-  </si>
-  <si>
-    <t>1 Nov pt 365</t>
-  </si>
-  <si>
-    <t>http://ca.pteducation.com/p/news01112019.html</t>
-  </si>
-  <si>
-    <t>President</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=GQ-LVYwB-Wk&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=29</t>
-  </si>
-  <si>
-    <t>Nothern plains</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Uese9dkgx-0&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=23</t>
   </si>
   <si>
     <t>SDR, 3R, S4A, IBC, Agri loans, 5/25 Infra loans</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=9FAwSmkF5dQ&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=30</t>
-  </si>
-  <si>
-    <t>Peninsular plateu and coastal plain</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=lFu-A27shRQ&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=24</t>
   </si>
   <si>
     <t>PARA, BanK Board Beuro</t>
   </si>
   <si>
-    <t>Vice-president, Prime Minister</t>
-  </si>
-  <si>
-    <t>Down of History in Deep south</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=6rm_D2mkLU0&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=25</t>
   </si>
   <si>
     <t>RBI History, NPA ordinance, Structure, Functions, Enforcement Dept</t>
   </si>
   <si>
-    <t>Indian River systema and river linking project</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8ua44Cv_i0g&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=31</t>
-  </si>
-  <si>
-    <t>Tourism , Roads , Sand mining</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=wcc-KvpZCw8&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=26</t>
   </si>
   <si>
     <t>Banks merger and privatization</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=gUHto7ASd8Q&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=32</t>
-  </si>
-  <si>
-    <t>Monsoon of India</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2a6XtVJkv-c&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=33</t>
-  </si>
-  <si>
-    <t>Climatic regions of India and Forest types</t>
-  </si>
-  <si>
-    <t>Start of Gupta</t>
-  </si>
-  <si>
-    <t>Complete Gupta</t>
-  </si>
-  <si>
-    <t>Council of Ministers , 74,75</t>
-  </si>
-  <si>
-    <t>Palm Oil, Shark, Train-elephant, Air Pollution</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=p37ad1xdEII&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=35</t>
-  </si>
-  <si>
-    <t>Flood, draught, Watershed management, rainfed, mulching, checkdams</t>
-  </si>
-  <si>
-    <t>http://ca.pteducation.com/p/news02112019.html</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jOIy6g372nQ&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=36</t>
-  </si>
-  <si>
-    <t>Soil  - Formation, Profile, Erosion, Salinity, Desertification</t>
-  </si>
-  <si>
-    <t>Life in the Gupta Age</t>
-  </si>
-  <si>
-    <t>http://ca.pteducation.com/p/365content2019.html</t>
-  </si>
-  <si>
     <t>Universal commercial banks, Differential banks - RRB, LAB, SFB, Payment banks</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=wxM_EFXdeoE&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=37</t>
-  </si>
-  <si>
-    <t>Soil types in India and Land use pattern</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=v8CeDM_xqRc&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=27</t>
   </si>
   <si>
-    <t>Spread of Civilization in eastern India</t>
-  </si>
-  <si>
-    <t>http://ca.pteducation.com/2019/11/current-affairs-editorials-03-november-2019.html</t>
-  </si>
-  <si>
-    <t>Harsha time</t>
-  </si>
-  <si>
-    <t>Environmental Impact Assesment</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=r2ZR2Czghho&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=38</t>
-  </si>
-  <si>
-    <t>indian Agri</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=XivIwxS5bSU&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=28</t>
   </si>
   <si>
     <t>Wholesale bank, Custodian bank, Cooperative banks - RURAL and URBAN. NBFI - EXIM, NABARD, NHB, SIDBI</t>
   </si>
   <si>
-    <t>Chalukya, Pallava, Pandya, Vatakas, Kalbhra Movement</t>
-  </si>
-  <si>
-    <t>Philosophy - Samkhya, Yoga, Nyaya, Vaisheshika, Mimansa, Vedanta. Brahmsuatra- Badarayun, Shankara, Ramanuj, Charvaka(lokyata)</t>
-  </si>
-  <si>
-    <t>Parliament</t>
-  </si>
-  <si>
     <t>NBFC , Islamic bank, Mudra</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=7SFaHLd4DLs&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=29</t>
   </si>
   <si>
-    <t>http://ca.pteducation.com/p/news04112019.html</t>
-  </si>
-  <si>
     <t>Investment Funds [ETF, ReITs, InvITs], Debt, Equity, &amp; Derivatives</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=Vfe0nZLleZ8&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=30</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=VeTc9xBO1Po&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=39</t>
-  </si>
-  <si>
-    <t>land reforms and land problems, agro climatic regions</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rA2SN_Iiy3M&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=40</t>
-  </si>
-  <si>
-    <t>http://ca.pteducation.com/p/news05112019.html</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Ed08XRmSVw4&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=31</t>
   </si>
   <si>
@@ -814,9 +422,6 @@
     <t>financial Inclusion- Banking, Credit/loan, investment, Insurance</t>
   </si>
   <si>
-    <t>fertilizers - Irrigation</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Xu1-Xh17v5Y&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=34</t>
   </si>
   <si>
@@ -826,12 +431,6 @@
     <t>Pension and Insurance schemes by Govt</t>
   </si>
   <si>
-    <t>Bill Procedure, Money bill</t>
-  </si>
-  <si>
-    <t>http://ca.pteducation.com/p/news06112019.html</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=1yn97vYXh1w&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=36</t>
   </si>
   <si>
@@ -844,12 +443,6 @@
     <t>Revenue- Recipt- Diredt Indirect taxes</t>
   </si>
   <si>
-    <t>Financial bill 1,  2 , Budget - stages</t>
-  </si>
-  <si>
-    <t>Biodiversity - Levels - Genetic, Species, Ecosystem. Measure of Biodiversity- Species richness and Evenness, Conservation- In situ, Ex Situ. Red Data Book</t>
-  </si>
-  <si>
     <t>GST - ALL</t>
   </si>
   <si>
@@ -862,27 +455,12 @@
     <t>Black money</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=RbDY7qm3uuw&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=41</t>
-  </si>
-  <si>
-    <t>Agri- Evergreen revolution, Extension, Finance, Marketting, Storage Infra, AGRMARKNET</t>
-  </si>
-  <si>
-    <t>https://byjus.com/free-ias-prep/upsc-exam-preparation-gist-yojana-jul-2019/</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=D2LyhWIsBd8&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=40</t>
   </si>
   <si>
     <t>Demonatization- soil rate</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=roXJNZvLW1g&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=42</t>
-  </si>
-  <si>
-    <t>Livestocks and fisheries</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=9zKYON9YA2c&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=41</t>
   </si>
   <si>
@@ -904,18 +482,6 @@
     <t xml:space="preserve">Current account capital account </t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=nIjjh7sJjUA&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=43</t>
-  </si>
-  <si>
-    <t>Minerals and mines</t>
-  </si>
-  <si>
-    <t>Parlimentary commitees</t>
-  </si>
-  <si>
-    <t>Biodiverstity in India</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=zjWJIQf_Uqk&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=45</t>
   </si>
   <si>
@@ -952,99 +518,18 @@
     <t>GDP GNP NNP</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=nxO-gIKruOE&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=44</t>
-  </si>
-  <si>
-    <t>petrol and gas</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=U8RvIgc41-A&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=51</t>
   </si>
   <si>
     <t>CPI, WPI, IIP, Different Index</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=UCeRZZVf9yk&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=45</t>
-  </si>
-  <si>
-    <t>Thorium and Uranium</t>
-  </si>
-  <si>
-    <t>Parlimentary forums</t>
-  </si>
-  <si>
-    <t>WPA - animals</t>
-  </si>
-  <si>
-    <t>iron, steel, cemment</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ahMVbMDHr3I&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=46</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=CPF7t302nZE&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=47</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=V6XVpJUQlGk&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=48</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=kupk718uXCA&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=52</t>
   </si>
   <si>
     <t>Infra- road, air, sea, railway,coommunction</t>
   </si>
   <si>
-    <t>Parlimentary group</t>
-  </si>
-  <si>
-    <t>Animal Diversity in India</t>
-  </si>
-  <si>
-    <t>oct</t>
-  </si>
-  <si>
-    <t>nov</t>
-  </si>
-  <si>
-    <t>dec</t>
-  </si>
-  <si>
-    <t>jan</t>
-  </si>
-  <si>
-    <t>feb</t>
-  </si>
-  <si>
-    <t>mar</t>
-  </si>
-  <si>
-    <t>apr</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>jun</t>
-  </si>
-  <si>
-    <t>jul</t>
-  </si>
-  <si>
-    <t>aug</t>
-  </si>
-  <si>
-    <t>sep</t>
-  </si>
-  <si>
-    <t>Revisiting from 1 oct</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=V1L3VDxmKYY&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=53</t>
   </si>
   <si>
@@ -1054,105 +539,18 @@
     <t>https://www.iasparliament.com/</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7piU4AeP81I&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=54</t>
-  </si>
-  <si>
-    <t>HDI</t>
-  </si>
-  <si>
-    <t>Completed Everything - Social schemes</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=pwyWfhJ66I8&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=55</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=cq7ea9pDrfk&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=49</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>South East Asia</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lezSVbnkHeg&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=50</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=eemFq1n1X00&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=51</t>
-  </si>
-  <si>
-    <t>West Asia</t>
-  </si>
-  <si>
-    <t>Judicial review</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qL93sbca0sI&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=52</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>Marine Ecosystem</t>
-  </si>
-  <si>
-    <t>Protected area network</t>
-  </si>
-  <si>
-    <t>Judicial activism</t>
-  </si>
-  <si>
     <t>May</t>
   </si>
   <si>
     <t>https://currentaffairs.gktoday.in/month/current-affairs-may-2019</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=QNoBbd-FlNg&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=53</t>
-  </si>
-  <si>
     <t xml:space="preserve">Harappa </t>
   </si>
   <si>
-    <t>Australia and new zealand</t>
-  </si>
-  <si>
-    <t>europe</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Z8Xivh85z6I&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=55</t>
-  </si>
-  <si>
-    <t>North America</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=E1h7LSExvak&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=56</t>
-  </si>
-  <si>
-    <t>South America</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=f6vIG-S4XjU&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=57</t>
-  </si>
-  <si>
     <t>https://projectupsc.wordpress.com/2019/03/09/one-nation-one-card-pm-narendra-modi-launches-mobility-card-that-would-work-across-country/</t>
   </si>
   <si>
-    <t>https://byjus.com/free-ias-prep/upsc-exam-preparation-gist-yojana-august-2019/</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>State legislation</t>
-  </si>
-  <si>
-    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Yojana_January_2019_www.iasparliament.com.pdf</t>
-  </si>
-  <si>
-    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_January_2019_www.iasparliament.com.pdf</t>
-  </si>
-  <si>
     <t>Post Maurya</t>
   </si>
   <si>
@@ -1168,33 +566,15 @@
     <t>March</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=lqW7aEHFtSM&amp;list=PLkJ-kjtioPGrnAYrBxGA1Z5P26LJo4zMJ&amp;index=22</t>
-  </si>
-  <si>
     <t>Economy this week</t>
   </si>
   <si>
-    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_February_2019_www.iasparliament.com.pdf</t>
-  </si>
-  <si>
     <t>Geography and you</t>
   </si>
   <si>
     <t>DowntoEarth</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=-QA5smJnT-k&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=3</t>
-  </si>
-  <si>
-    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_March_2019_www.iasparliament.com.pdf</t>
-  </si>
-  <si>
-    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Yojana_February_2019_www.iasparliament.com.pdf</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8KvWWDu81Ns&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=4</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=4To181mxo8k</t>
   </si>
   <si>
@@ -1210,379 +590,1043 @@
     <t>Done</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=fy-9eXg_7H8&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=5</t>
-  </si>
-  <si>
-    <t>Earths's Interior</t>
-  </si>
-  <si>
     <t>9th feb</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=3qVJWGWZ3yc</t>
   </si>
   <si>
-    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_April_2019_www.iasparliament.com.pdf</t>
-  </si>
-  <si>
-    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Yojana_March_2019_www.iasparliament.com.pdf</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=xDXXnPk2jB0</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=dkdZnD5ck-I&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=6</t>
-  </si>
-  <si>
-    <t>Shadow zones</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s2lVo9yLkQs&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=7</t>
-  </si>
-  <si>
-    <t>Endogenic</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=a9Qioq0wqE4</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ysGYLrkrxmo&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=9</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8hMD52kUhRk&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=11</t>
-  </si>
-  <si>
-    <t>Techtonics</t>
-  </si>
-  <si>
-    <t>17-Mar</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=IkMyW47c4zo&amp;t=6s</t>
   </si>
   <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=J6ODyF3xilE&amp;list=PLkJ-kjtioPGrnAYrBxGA1Z5P26LJo4zMJ&amp;index=23</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=puOaCr93ORI&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=15</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=oMMu-OBcpp4</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=xnIYk8vRmXc&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=18</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=ip9ZZIo7mZ0</t>
   </si>
   <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/08-11-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>PT IS BAD</t>
-  </si>
-  <si>
-    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_June_2019_www.iasparliament.com.pdf</t>
-  </si>
-  <si>
-    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Yojana_May_2019_www.iasparliament.pdf</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=MySitTEdpYw</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=DuqnK8n5ViQ&amp;list=PLkJ-kjtioPGrnAYrBxGA1Z5P26LJo4zMJ&amp;index=22</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=gJVLbSVAGVQ&amp;t=5s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=QiZ1ie6F80M&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=28</t>
-  </si>
-  <si>
-    <t>atomospheric  layers</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=tMGG63qnK1E</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JO7hUIMvb88&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=29</t>
-  </si>
-  <si>
-    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Yojana_June_2019_www.iasparliament.com.pdf</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nEsKyz0Cc6w&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=32</t>
-  </si>
-  <si>
-    <t>Winds</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=N5Zm38fA_I4&amp;t=3s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=wYc83TeGSR0</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=6-tGwHO1o7w&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=34</t>
-  </si>
-  <si>
-    <t>Local winds</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=A28uZaXdaC8</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=9RSP1nYSD_Q</t>
   </si>
   <si>
-    <t>Temprature inversion</t>
-  </si>
-  <si>
-    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_July_2019_www.iasparliament.com.pdf</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=smBiT7gG5Mg&amp;t=3s</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ZVW4nSkRZIY</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=JRrM6Inrhn4&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=36</t>
-  </si>
-  <si>
-    <t>Jet Streams</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=NAiMnvFnQTg</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rKb-qcKmnpU&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=38</t>
-  </si>
-  <si>
-    <t>Cyclones</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=jzDEzii_5sA</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=tRLdN3FfLZM&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=39</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=2tc-Mrsgjfg&amp;t=910s</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=eUmvutKsFGQ&amp;list=PLkJ-kjtioPGrnAYrBxGA1Z5P26LJo4zMJ&amp;index=23</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=yoO_xDAm2mI&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=40</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ys-h4fuOwBI&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=42</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=IeMPEWC96jw</t>
   </si>
   <si>
-    <t>El Nino and La nina</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=jcFo1i5zzHc&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=43</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gDf2Z18nAD8&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=44</t>
-  </si>
-  <si>
-    <t>Tropical cylones</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=mqQHraQyBa8&amp;t=767s</t>
   </si>
   <si>
-    <t>Mrunal Economy Again</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=AoBNl48z7FE&amp;list=PLnLPOFlKHGpGIQdN4CwAcC10K0rf8o5Hs&amp;index=1</t>
-  </si>
-  <si>
-    <t>Starting Again</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=D-PKBYAM5h8</t>
-  </si>
-  <si>
-    <t>Tropical Climate</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=X94PCwczGKM&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=49</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=oXAl5NLX0L8&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=51</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=UhoZUZoRAt8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rQQsSbuStf4&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=52</t>
-  </si>
-  <si>
-    <t>sept</t>
-  </si>
-  <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/04-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=xDeDsIZZ5Ig&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=59</t>
-  </si>
-  <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/05-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ajksA_jVDm8</t>
-  </si>
-  <si>
-    <t>Yojana Oct 2019</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qtlDQrRvm60</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=M0pCjSpA3I8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fnVL2GSrWEk</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=feSEHXDMEhI</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rs8AOYBc0B4</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=zwl8UOYgM7Y&amp;list=PLkJ-kjtioPGrnAYrBxGA1Z5P26LJo4zMJ&amp;index=27</t>
-  </si>
-  <si>
-    <t>Yojana Nov 2019</t>
-  </si>
-  <si>
     <t>complete</t>
   </si>
   <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/08-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/09-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=1573zt0yzbs&amp;t=14s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=rSpJK5sOGak</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fZTCfQEw9u8&amp;list=PLSIQ2v5fg9DNhKhPbVYUDifkr2vOe_tbD</t>
-  </si>
-  <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/11-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=I2-J6Wsdkaw&amp;list=PLSIQ2v5fg9DNhKhPbVYUDifkr2vOe_tbD&amp;index=6</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=sKpQgXpVOdQ</t>
-  </si>
-  <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/12-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=fD6ZB0CAH9o&amp;list=PLSIQ2v5fg9DNhKhPbVYUDifkr2vOe_tbD&amp;index=8</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=tsMWP1TpC3Q&amp;t=17s</t>
-  </si>
-  <si>
-    <t>Yojana Jan 2020</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=27_Rits8OJ0&amp;list=PLSIQ2v5fg9DNhKhPbVYUDifkr2vOe_tbD&amp;index=10</t>
-  </si>
-  <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/15-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kU55HmO_RwE&amp;list=PLSIQ2v5fg9DNhKhPbVYUDifkr2vOe_tbD&amp;index=11</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qllV9w7d77Q&amp;list=PLSIQ2v5fg9DNhKhPbVYUDifkr2vOe_tbD&amp;index=17</t>
-  </si>
-  <si>
-    <t>on going</t>
-  </si>
-  <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/16-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>Optional</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=6VD9r-_3mus&amp;list=PL6SvdYyb40V25wCpJ1I_Y_lzHuSdgvPMq</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=wpvwomg5-GU&amp;list=PL6SvdYyb40V25wCpJ1I_Y_lzHuSdgvPMq&amp;index=3</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=J5f44HxgVNo</t>
-  </si>
-  <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/18-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qnTV1o8kSbc&amp;list=PLSIQ2v5fg9DNhKhPbVYUDifkr2vOe_tbD&amp;index=19</t>
-  </si>
-  <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/19-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/21-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=EKSeDt-4iZQ&amp;list=PLSIQ2v5fg9DNhKhPbVYUDifkr2vOe_tbD&amp;index=21</t>
-  </si>
-  <si>
-    <t>Yojana Feb 2020</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=Xqp0rPd34EE&amp;list=PLkJ-kjtioPGrnAYrBxGA1Z5P26LJo4zMJ&amp;index=28</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=H2nHsCb-MKs&amp;list=PL6SvdYyb40V25wCpJ1I_Y_lzHuSdgvPMq&amp;index=5</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=gK9o4HO4hH0&amp;list=PL6SvdYyb40V25wCpJ1I_Y_lzHuSdgvPMq&amp;index=6</t>
-  </si>
-  <si>
-    <t>https://afeias.com/knowledge-centre/newspaper-clips/30-10-2019-important-news-clippings/</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=lB1yp8yDGXQ&amp;list=PLSIQ2v5fg9DNhKhPbVYUDifkr2vOe_tbD&amp;index=23</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ggHzn0wffUM&amp;list=PL6SvdYyb40V25wCpJ1I_Y_lzHuSdgvPMq&amp;index=7</t>
+    <t>AFEIAS</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Essay</t>
+  </si>
+  <si>
+    <t>GS 1</t>
+  </si>
+  <si>
+    <t>GS 2</t>
+  </si>
+  <si>
+    <t>GS 3</t>
+  </si>
+  <si>
+    <t>GS 4</t>
+  </si>
+  <si>
+    <t>Optional 1</t>
+  </si>
+  <si>
+    <t>Opational 2</t>
+  </si>
+  <si>
+    <t>1.	With greater power comes greater responsibility.
+2.	Is the growing level of competition good for the youth?
+3.	Are the standardized tests good measure of academic ability or progress?
+4.	Words are sharper than the two-edged sword.
+5.	Was it the policy paralysis or the paralysis of implementation which slowed the growth of our country?
+6.	Is sting operation an invasion on privacy?
+7.	Fifty Golds in Olympics: Can this be a reality for India?
+8.	Tourism: Can this be the next big thing for India?</t>
+  </si>
+  <si>
+    <t>1. To what extent has the urban planning and culture of the Indus Valley Civilization provided inputs to the present day urbanization? Discuss.
+2. Gandhara sculpture owed as much to the Romans as to the Greeks. Explain.
+3. Taxila university was one of the oldest universities of the world with which were associated a number of renowned learned personalities of different disciplines. Its strategic location caused its fame to flourish, but unlike Nalanda, it is not considered as a university in the modern sense. Discuss.
+4. The third battle of Panipat was fought in 1761. Why were so many empire-shaking battles fought at Panipat?
+5. Sufis and medieval saints failed to modify either the religious ideas and practices or the outward structure of Hindu/ Muslim societies to any appreciable extent. Comment.
+6. Examine critically the various facets of economic policies of the British in India from mid-eighteenth century till independence.
+7. In what ways did the navel mutiny prove to be the last nail in the coffin of British colonial aspirations in India?
+8. What were the major political, economic and social developments in the world which motivated the anti-colonial in India?
+9. What were the events that led to the Suez Crisis in 1956? How did it deal a final blow to Britain’s self-image as a world power?
+10. The New Economic Policy – 1921 of Lenin had influenced the policies adopted by India soon after independence. Evaluate.
+11. How does patriarchy impact the position of a middle class working woman in India?
+12. Why do some of the most prosperous regions of India have an adverse sex ratio for women? Give your arguments.
+13. The life cycle of a joint family depends on economic factors rather than social values. Discuss.
+14. Discuss the various economic and socio-cultural forces that are driving increasing feminization of agriculture in India.
+15. How do the Indian debates on secularism differ from the debates in the West?
+16. Most of the unusual climatic happenings are explained as an outcome of the El-Nino effect. Do you agree?
+17. Why are the world’s fold mountain systems located along the margins of continents? Bring out the association between the global distribution of fold mountains and the earthquakes and volcanoes.
+18. Explain the formation of thousands of islands in Indonesian and Philipines archipelagos.
+19. Tropical cyclones are largely confined to South China Sea, Bay of Bengal and Gulf of Mexico. Why?
+20. Bring out the relationship between the shrinking Himalayan glaciers and the symptoms of climate change in the Indian sub-continent.
+21. Whereas the British planters had developed tea gardens all along the Shivaliks and Lesser Himalayas from Assam to Himachal Pradesh, in effect they did not succeed beyond the Darjeeling area. Explain.
+22. Why did the Green Revolution in India virtually by-pass the eastern region despite fertile soil and good availability of water?
+23. Account for the change in the spatial pattern of the Iron and Steel industry in the world.
+24. Critically evaluate the various resources of the oceans which can be harnessed to meet the resource crisis in the world.
+25. How does India see its place in the economic space of rising natural resources rich Africa?</t>
+  </si>
+  <si>
+    <t>1. Staring from inventing the ‘basic structure’ doctrine, the judicial activism in achieving the ideals of democracy.
+2. Though the federal principal is dominant in our constitution and that principle is one of its basic features, but it is equally true that federalism under the Indian Constitution leans in favour of a strong Center, a feature that militates against the concept of strong federalism. Discuss.
+3. The ‘Powers, Privileges and Immunities of Parliament and its members’ as envisaged in Article 105 of the Constitution leave room for a large number of un-enumerated privileges’. How can this problem be addressed?
+4. What do you understand by the concept “freedom of speech and expression”? Does it cover hat speech also? Why do the films in India stand on a slightly different plane
+from other forms of expression? Discuss.
+5. Instances of President’s delay in commuting death sentences has come under public debate as denial of justice. Should there be a time limit specified for the President to accept/reject such petitions ? Analyse. ]
+6. The size of the cabinet should be as big as governmental work justifies and as big as the Prime Minister can manage as a team. How far is the efficacy of a government then inversely related to the size of the cabinet? Discuss.
+7. Thought 100 percent FDI is already allowed in non-news media like a trade publication and general entertainment channel, the Government is mulling over the proposal for increased FDI in new for quite some time. What difference would an increase in FDI make? Critically evaluate the pros and cons.
+8. The setting up of a Rail Tarif Authority to regulate fares will subject the cash strapped Indian Railways to demand subsidy for obligation to operate nonprofitable routes and services. Taking into account the experience in the power sector, discuss if the proposed reform is expected to benefit the consumers, the Indian Railways or the private container operators.
+9. National Human Rights Commission (NIIRC) in India can be most effective when its tasks are adequately supported by other mechanisms that ensure the accountability of a government. In light of the above observation assess the role of NHRC as an effective complement to the judiciary and the judiciary and other institutions. In promoting and protecting human rights standards.
+10. The penetration of self-help groups (SHGs) in rural areas in promoting participation in development programmes is facing sociocultural hurdles. Examine.
+11. Do government’s schemes for up-lifting vulnerable and backward communities by protecting required social resources for them, lead to their exclusion in establishing businesses in urban economies?
+12. An athete participates in Olympics for personal triumph and nation’s glory; victors are showered with cash incentives by various agencles, on their return. Discuss the merit of state sponsored talent hunt and its cultivation as against the rationale of a reward mechanism as encouragement.
+13. Should the premier institutes like IITs/ IIMs be allowed to retain premier status, allowed more academic independence in designing course and also decide mode/ criteria of selection of students. Discuss in light of the growing challenges.
+14. Has the Cadre based Civil Services  rganzation been the cause of slow change in India? Critically examine.
+15. Two parallel run schemes of the Government, viz the Adhaar Card and NPR, one as voluntary and the other as compulsory, have led to debates at national levels and also litigations. On merits, discuss whether or not both schemes need run concurrently. Analyse the potential of the schemes to achieve developmental benefits and equitable growth.
+16. With respect to the South China sea, maritime territorial disputes and rising tension affirm the need for safeguarding maritime security to ensure freedom of navigation and over flight throughout the region. In this context, discuss the bilateral issues between India and China.
+17. The aim of Information Technology Agreements (ITAs) is to all taxes and tariffs on information technology products by signatories to zero. What impact would such agreements have on India’s interests?
+18. Some of the International funding agencies have special terms for economic participation stipulating a substantial component of the aid to be used for sourcing equipment from the\ leading countries. Discuss on merits of such terms and if there exists a strong case not to accept such conditions in the India context.
+19. India has recently signed to become founding member of New Development Bank (NDB) and also the Asian Infrastructure Bank (AIIB). How will the role of the two Banks be different? Discuss the strategic significance of these two Banks for India.
+20. WTO is an important international institution where decisions taken affect countries in a profound manner. What is the mandate of WTO and how binding are their decisions? Critically analyse India’s stand on the latest round of talks on Food security.</t>
+  </si>
+  <si>
+    <t>Q1. Lending hands to someone is better than giving a dole.
+Q2. Quick but steady wins the race
+Q3. Character of an institution is reflected in its leader.
+Q4. Education without values, as useful as it is, seems rather to make a man more clever devil.
+Q1. Technology cannot replace manpower.
+Q2. Crisis faced in India – moral or economic.
+Q3. Dreams which should not let India sleep.
+Q4. Can capitalims bring inclusive growth?</t>
+  </si>
+  <si>
+    <t>Q1. The ancient civilization in Indian sub continent differed from those of Egypt , Mesopotamia and Greece in that its culture and traditions have been preserved without breakdown to the present day. Comment (12.5M)
+Q2. Mesolithic rock cut architecture of India not only reflects the cultural life of the times but also a fine aesthetic sense comparable to modern painting. Critically evaluate this comment. (12.5M)
+Q3. How difficult would have been the achievement of Indian independence without Mahatma Gandhi? Discuss.
+Q4. Mahatma Gandhi and Dr. B R Ambedkar, despite having divergent approaches and strategies, had a common goal of amelioration of the downtrodden. Elucidate. (12.5M)
+Q5. It would have been difficult for the Constituent Assembly to complete its historic task of drafting the Constitution for Independent India in just three years, but its experience gained with the Government of India Act, 1935 .Discuss.(12.5M)
+Q6. Why did the industrial revolution first occur in England? Discuss the quality of life of the people there during the industrialization. How does it compare with that in India at present times?
+Q7. To what extend can Germany be held responsible for causing the two World Wars? Discuss critically.
+Q8. Describe any four cultural elements of diversity in India and rate their relative significance in building a national identity.
+Q9. Critically examine whether growing population is the cause of poverty OR poverty is the mains cause of population increase in India.
+Q10. How do you explain the statistics that show that the sex ratio in Tribes in India is more favourable to women than the sex ratio among Scheduled Castes?
+Q11. Discuss the changes in the trends of labour migration within and outside India in the last four decades.
+Q12. Discuss the positive and negative effects of globalization on women in India?
+Q13. Debate the issue whether and how contemporary movements for assertion of Dalit identity work towards annihilation of caste.
+Q14. Explain the factors responsible for the origin of ocean currents. How do they influence regional climates, fishing and navigation?
+Q15. Mumbai, Delhi and Kolkata are the three Mega cities of the country but the air pollution is much more serious probelm in Delhi as compared to the other two. Why is this so?
+Q16. India is well endowed with fresh water resources. Critically examine why it still suffers from water scarcity.
+Q17. The states of Jammu and Kashmir, Himachal Pradesh and Uttarakhand are reaching the limits of econological carrying capacity due to tourism. Critically evaluate.
+Q18. How far do you agree that the behaviour of the Indian monsoon has been changing due to humanizing landscape? Discuss.
+Q19. Smart cities in India cannot sustain without smart vilages. Discuss this statement in the backdrop of rural urban integration.
+Q20. What are the economic significances of discovery of oil in Arctic Sea and its possible environemental consequences?</t>
+  </si>
+  <si>
+    <t>Q1. Discuss the possible factors that inhibit India from enacting for its citizen a uniform civil code as provided for in the Directive Principles of State Policy.
+Q2. The concept of cooperative federalism has been increasingly emphasised in recent years. Highlight the drawbacks in the existing structure and extent to which cooperative federalism would answer the shortcomings.
+Q3. In the absence of well – educated and organised local level government system, Panchayats and Samitis have remained mainly political institutions and not effective instrument of governance. Critically Discuss.
+Q4. Khap panchayats have been in the news for functioning as extra – constitutional authorities, often delivering pronouncements amounting to human right violations. Discuss critically the actions taken by the legislative, executive and judiciary to set the things right in this regard.
+Q5. Resorting to ordinances has always raised concern on violation of the spirit of separation of power doctrine. While noting the rationales justifying the power to promulgate, analyse whether the decision of the Supreme Court on the issue have further facilitated to resorting to this power. Should the power to promulgate the ordinances be repealed?
+Q6. What are the major changes brought in the Arbitration and Conciliation Act, 1966 through the recent ordinance promulgated by the President? How far will it improve India’s dispute resolution mechanism? Discuss.
+Q7. Does the right to clean environment entail legal regulation on burning crackers during Diwali? Discus in the light of Article 21 of Indian Constitution and judgements of the apex in this regard.
+Q8. Examine critically the recent changes in the rule governing foreign funding of NGOs under the Foreign Contribution (Regulation) Act (FCRA), 1976.
+Q9. The Self Help Group (SHG) Bank Linkage Program (SBLP), which is India’s own innovation , has proved to be one of the most effective poverty alleviation and women empowerment programme. Elucidate.
+Q10. How can be the role of NGOs be strengthened in India for development works relating to protection of the Environment? Discuss throwing light on the major constraints.
+Q11. The quality of higher education in India requires major improvement to make it internationally competitive. Do you think that the entry of foreign educational institutions would help improve the quality of technical and higher education in the country. Discuss.
+Q12. Public health system has limitation in providing universal health coverage. Do you think that private sector can help in bridging the gap? What other viable alternatives do you suggest?
+Q13. Though there have been several different estimates of poverty in India, all indicate reduction in poverty over time. Do you agree. Critically examine with reference to urban and rural poverty indicators.
+Q14. In the light of Satyam Scandal (2009), discuss the changes brought in the corporate governance to ensure transparency and accountability.
+Q15. If amendment bill to the Whistleblowers Protection Act 2011 tabled in the Parliament is passed, there maybe no on left to protect. Critically Evaluate.
+Q16. For achieving the desired objectives,it is necessary to ensure that the regulatory institution remain independent and autonomous. Discuss in the light of experiences in recent past.
+Q17. Increasing interest of India in Africa has its pro and cons. Critically Examine.
+Q18. Discuss the impediments India is facing in its pursuit of a permanent seat in UNSC.
+Q19. Project ‘Mausam’ is considered a unique foreign policy initiative of Indian government to improve relationship wit its neighbours. Does the project have a strategic dimension? Discuss
+Q20. Terrorist activities and mutual distrust have clouded India – Pakistan relations. To what etent the use of soft power like sports and cultural exchange could help generate goodwill between the two countries. Discuss with suitable examples.</t>
+  </si>
+  <si>
+    <t>Q1. The nature of economic growth in India in recent times is often described as a jobless growth. Do you agree with this view? Give arguments in favour of your answer.
+Q2. Livestock rearing has a big potential for providing non- farm employment and income in rural areas. Discuss suggesting suitable measures to promote this sector in India.
+Q3. In the view of the declining average size of land holdings in India which has made agriculture non – viable for a majority of farmers should contract farming and land leasing be promoted in agriculture? critically evaluate the pros and cons.
+Q4. How can the Digital India program help farmers to improve farm productivity and income? What step has the government taken in this regard?
+Q5. In what way could replacement of price subsidy with direct benefit Transfer (DBT) change the scenario of subsidies in India? Discuss.
+Q6. What are the impediments in marketing and supply chain management in developing the food processing industry in India? Can e-commerce help in overcoming this bottleneck?
+Q7. Craze for gold in Indian has led to surge in import of gold in recent years and put pressure on balance of payments and external value of rupee. In view of this, examine the merits of Gold Monetization scheme.
+Q8. “Success of make in India program depends on the success of Skill India programme and radical labour reforms.” Discuss with logical arguments.
+Q9. To what factors can be the recent dramatic fall in equipment cost and tariff of solar energy be attributed? What implications does the trend have for thermal power producers and related industry?
+Q10. There is a clear acknowledgement that Special Economic Zones (SEZs) are a tool of industrial development, manufacturing and exports. Recognising this potential, the whole instrumentality of SEZs require augmentation. Discuss the issue plaguing the success of SEZs with respect to taxation, governing laws and administration.
+Q11. What do you understand by “Standard Positioning System” and “Precision positioning system” in the GPS era? Discuss the advantage India perceives from its ambitious IRNSS programme employing just seven satellites.
+Q12. What are the areas of prohibitive labour that can be sustainably managed by robots? Discuss the initiatives that can propel the research in premier research institutes for substantive and gainful innovation.
+Q13. Discuss the advantage and security implication of cloud hosting of servers vis-a-vis in house machine based hosting for government business.
+Q14. India’s Traditional Knowledge Digital Library (TKDL) which has a database containing formatted information on more than 2 million medicinal formulations is proving a powerful weapon in country’s fight against erroneous patents. Discuss the pro and cons of making the database available publicly available under open source licensing.
+Q15. Discuss the Namami Gange and National Mission for Clean Ganga (NMCG) programmes and causes of mixed results from the previous schemes. What quantum leaps can help preserve the river Ganga better than incremental inputs?
+Q16. The frequency of earthquakes appears to have increased in the Indian subcontinent. However, India’s preparedness for mitigating their impact has significant gaps. Discuss various aspects.
+Q17. Human right activists constantly highlight the fact that the Armed forces (Special Powers) Act, 1958 (AFSPA) is a draconian act leading to cases of human right abuses by security forces. What sections of AFSPA are opposed by the activists. Critically evaluate the requirement with reference to the view held by Apex Court.
+Q18. Religious indoctrination via social media has resulted in Indian youth joining the ISIS. What is ISIS and its mission? How can ISIS be dangerous to the internal security of our country.
+Q19. The persisting drives of the government for development of large industries in backward areas have resulted in isolating the tribal population and the farmers who face multiple displacements. With Malkangiri and Naxalbari foci, discuss the corrective strategies needed to win the Left Wing Extremism (LWE) doctrine affected citizens back into mainstream of social and economic growth.
+Q20. Considering the threats cyberspace poses for the country, India needs a “Digital Armed Forces” to prevent crimes. Critically evaluate the National Cyber Security Policy, 2013 outlining the challenges perceived in its effective implementation.</t>
+  </si>
+  <si>
+    <t>Q1.
+(a) What is meant by ‘environmental ethics’? Why is it important to study? Discuss any one environmental issue from the viewpoint of environmental ethics. (150 words) (10)
+(b) Differentiate between the following (10 marks) (200 Words)
+(i) Law and ethics
+(ii) Ethical management and management of ethics
+(iii) Discrimination and preferential treatment
+(iv) Personal Ethics and Professional Ethics
+Q2. Given are two quotations of moral thinkers/philosophers. For each of these bring out what it means to you in the present context.
+(a) “The weak can never forgive; forgiveness is the attribute of strong.” (10) (150 words)
+(b) “We can easily forgive a child who is afraid of the dark; the real tragedy of life is when men are afraid of the light” (10 marks) (150 words)
+Q3.
+(a) “A mere compliance with law is not enough, the public servant also have to have a well developed sensibility to ethical issues for effective discharge of duties” Do you agree? Explain with the help of two examples where (i) an act is ethically right, but not legally and (ii) an act is legally right, but not ethically. (10 Marks) (150 words)
+(b) How do the virtues of trustworthiness and fortitude get manifested in public service? Explain with examples (10) (150 words)
+Q4.
+(a) Social values are more important than economic values. Discuss the above statement with examples in the context of inclusive growth of a nation. (150 words) (10 Marks)
+(b) Some recent developments such as introduction of RTI Act, media and judicial activism, etc. are proving helpful in bringing about greater transparency and accountability in the functioning of the government. However, it is also being observed that at times the mechanisms are misused. Another negative effect is that the officers are now afraid to take prompt decisions. Analyse the situation in detail and suggest how the dichotomy can be resolved. Suggest how these negative impacts can be minimised. (150 words) (10 Marks)
+Q5. Two different kinds of attitudes exhibited by public servants towards their work have been identified as bureaucratic attitude and the democratic attitude. (10 Marks) (150 words)
+(a) Distinguish between these two terms and write their merits and demerits.
+(b) Is it possible to balance the two too create a better administration for the faster development of our country?
+Q6. Today we find that in-spite of various measures of prescribing codes of conduct, setting up vigilance cells/commissions, RTI, active media and strengthening of legal mechanism, corrupt practices are not coming under control. (10 Marks) (150 words)
+(a) Evaluate the effectiveness of these measures with justifications
+(b) Suggest more effective strategies to tackle this menace
+Q7. At the international level, bilateral relations between most nations are governed on the policy of promoting one’s own national interest without any regard for the interest of other nations. This lead to conflicts and tension between the nations. How can ethical consideration help resolve such tensions? Discuss with specific examples. (10 Marks) (150 words)
+Q8. Public servants are likely to confront with the issues of “Conflict of Interest”. What do you understand by the term “Conflict of Interest” and how does it manifest in the decision making by public servants? If faced with the conflict of interest situation how would you resolve it? Explain with the help of examples. (10 Marks) (150 words)</t>
+  </si>
+  <si>
+    <t>(a) Attempt a classification of geomorphic processes from the zonal point of view.
+(b) Discuss as to how frontogenesis contributes to weather instability.
+(c) Describe the characteristics of different types of pelagic deposits.
+(d) Explain the characteristics of ecological succession.
+(e) Comment on the impact of environmental education on quality of life.
+2.(a) Discuss the contributions of the American School of Subaerial Denudation in geomorphology. 20 marks
+(b) What is Potential Evapotranspiration ? Explain how it is used in assessing the water balance in an area. 15 marks
+(c) Discuss the methods of conserving biodiversity for sustainable development. 15 marks
+3.(a) Discuss the basis of Koppen’s climatic classification. Bring out the salient characteristics of ‘Cs’ type of climate. 20 marks
+(b) Explain with examples as to how channel dynamics has been responsible for the development of alluvial fans and cones. 15 marks
+(c) Classify soils based on their zonal distribution and describe the characteristics of pedocals. 15 marks
+4.(a) Explain the different stages of ecological adaptation of man and bring out the changing balance between man and environment. 20 marks
+(b) “Present-day landforms bear more complexity than simplicity.” Elucidate. 15 marks
+(c) Explain the meridional circulation of the atmosphere and its importance in world climate. 15 marks
+(a) “The welfare face of geography makes it an inter-disciplinary subject.” Elaborate.
+(b) “Energy mix is a step towards sustainability.” Discuss.
+(c) Discuss Nelson's method of functional classification of towns.
+(d) “Marx’s view on population is more humanistic.” Comment.
+(e) “Development planning has a component of environmental cost.” Discuss.
+6.(a) “Regional synthesis is the crux of geographical studies.” Elaborate. 20 marks
+(b) “Man-induced famines are becoming more common than nature-induced ones.” Comment. 15 marks
+(c) Critically examine the theories on population migration. 15 marks
+7.(a) Discuss the relevance of Von Thunen’s model on agricultural location in the contemporary context, 20 marks
+(b) “Cultural regions are the most suited units to study the diversity of an area.” Comment. 15 marks
+(c) Discuss the approaches to the study of behavioural geography. 15 marks
+8.(a) “There is a rejuvenation of environmentalism as a paradigm in geographical studies.” Comment. 20 marks
+(b) “Geographical traits lead to regional imbalances.” Examine. 15 marks
+(c) "Vital statistics are necessary ingredients for development planning.” Elaborate. 15 marks</t>
+  </si>
+  <si>
+    <t>1. Answer all the following. The word limit for (b), (c), (d), (e) has been indicated in the parenthesis : 10x5=50 marks
+(a) On the outline map of India provided to you, mark the locations of all the following. Write in your QCA Booklet the significance of these locations, whether physical/commercial/economic/ecological/environmental/cultural, in not more than 30 words for each entity : 2x5=10 marks
+(i) Tharangambadi
+(ii) Namcha Barwa
+(iii) Narcondam
+(iv) Khajjiar
+(v) Chunchanakatte
+(b) Why does the pharmaceutical industry concentrate largely in the western region of the country? (In about 150 words) 10 marks
+(c) Explain the pattern of winter rainfall in India. (In about 150 words) 10 marks
+(d) Discuss the relationship of watershed approach to village level planning. (In about 150 words) 10 marks
+(e) How does natural vegetation affect the formation of in situ soils? (In about 150 words) 10 marks
+2.(a) Account for the geographical distribution of groundwater resources of India. How serious is its depletion in recent decades? 20 marks
+(b) Why is the traditional crafts industry in India on the decline? 15 marks
+(c) Explain how modernization of Indian agriculture is affected by unfavourable institutional factors with suitable examples. 15 marks
+3.(a) Distinguish between ‘agricultural productivity' and ‘agricultural efficiency’, and bring out the disparity in regional distribution of agricultural efficiency. 20 marks
+(b) With the help of a map, indicate the principal areas of dryland farming in the county and account for farmers' suicides mainly in those areas. 15 marks
+(c) Evaluate the contribution of Communication and Information Technology to the development of economy and society, and examine the relevance of the recently launched 'Digital India' programme. 15 marks
+4.(a) Account for the growing frequency and intensity of floods in India, and suggest short- and long-term remedial measures indicating the chronically flood-prone areas. 20 marks
+(b) How does climate change affect the process of desertification of India? 15 marks
+(c) Discuss the scope of replication of ‘White Revolution in India.  15 marks
+1. Answer all the following. The word limit for(b), (c), (d), (e) has been indicated in the parenthesis : 10x5=50 marks
+(a) On the outline map of India provided to you, mark the locations of all the following. Write in your QCA Booklet the significance of these locations, whether physical / commercial / economic/ecological/environmental / cultural, in not more than 30 words for each entry : 2x5=10 marks
+(i) Nokrek
+(ii) Gorakhnath Peak
+(iii) Indrakiladri Peak
+(iv) Polavaram
+(v) Anaimudi
+(b) “Age-sex pyramid is representative of the history of a region.” Explain. (In about 150 words) 10 marks
+(c) "Mono-functional towns are economically vulnerable.” Discuss. (In about 150 words) 10 marks
+(d) Explain how change in land use can promote eco-development at different levels in the country. (In about 150 words) 10 marks
+(e) Discuss the social and spatial ramifications of increasing longevity. (In about 150 words) 10 marks
+6.(a) Decentralized planning through the strengthening of the Panchayat system is the focus of planning in India in recent times. Suggest a blueprint for an integrated regional development plan. 20 marks
+(b) In population planning, the thrust of the Government has been ‘planning the population' not ‘plan for the population'. Elaborate. 15 marks
+(c) Is planning for a cluster of villages a viable option, when planning for backward areas of the country? Discuss with suitable examples. 15 marks
+7.(a) Reduction in regional disparities has been one of the priority goals of national planning in India. How the proposed new Smart urban centres may contribute to the process? 20 marks
+(b) How has India’s ‘Look East’ policy taken shape in the past two decades and how it may affect India's external trade? 15 marks
+(c) Indian island territories are vulnerable to the sea level rise. Explain. 15 marks
+8.(a) Discuss the concept of multi-level planning as practised in India, and explain the implications of 73rd and 74th Constitutional Amendments in this respect. 20 marks
+(b) Give a reasoned account of river water disputes related to the River Krishna. 15 marks
+(c) Outline the Government of India’s strategies of conservation of the Western Ghats. 15 marks</t>
+  </si>
+  <si>
+    <t>1.	If development is not engendered, it is engendered.
+2.	Need brings greed, if greed increases it spoils bread.
+3.	Water disputes between State in federal India.
+4.	Innovation is the key determinant of economic growth and social welfare.
+5.	Cooperative federalism: Myth or reality.
+6.	Cyberspace and Internet: Blessing or curse to the human civilization in the long run.
+7.	Near jobless growth in India: An anomaly or an outcome of economic reforms.
+8.	Digital Economy: A leveller or a source of economic inequality.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	Early Buddhist Stupa-art, while depicting folk motifs and narratives successfully expounds Buddhist ideals. Elucidate. 12.5 marks
+2.	Krishnadeva Raya, the King of Vijayanagar, was not only an accomplished scholar himself but was also a great patron of learning and literature. Discuss. 12.5 marks
+3.	Explain how the Uprising of 1857 constitutes an important watershed in the evolution of British policies towards colonial India. 12.5 marks
+4.	Discuss the role of women in the freedom struggle especially during the Gandhian phase.  12.5 marks
+5.	Highlight the differences in the approach of Subhash Chandra Bose and Mahatma Gandhi in the struggle for freedom. 12.5 marks
+6.	Has the formation of linguistic States strengthened the cause of Indian Unity? 12.5 marks
+7.	The anti-colonial struggles in West Africa were led by the new elite of Western-educated Africans. Examine. 12.5 marks
+8.	To what extent globalization has influenced the core of cultural diversity in India? Explain. 12.5 marks
+9.	"An essential condition to eradicate poverty is to liberate the poor from the process of  deprivation." Substantiate this statement with suitable examples. 7+5.5=12.5 marks
+10.	Why are the tribals in India referred to as 'the Scheduled Tribes? Indicate the major 1 in the Constitution of India for their upliftment. 4.5+8=12.5 marks
+11.	With a brief background of quality of urban life in India, introduce the objectives and strategy of the 'Smart City Programme'. 4+8.5=12.5 marks
+12.	What is the basis of regionalism? Is it that unequal distribution of benefits of development on regional basis eventually promotes regionalism? Substantiate your answer. 3.5+9=12.5 marks
+13.	Discuss the concept of air mass and explain its role in macro-climatic changes. 12.5 marks
+14.	"The Himalayas are highly prone to landslides." Discuss the causes and suggest suitable measures of mitigation. 12.5 marks
+15.	The effective management of land and water resources will drastically reduce the human miseries. Explain. 12.5 marks
+16.	South China Sea has assumed great geopolitical significance in the present context. Comment. 12.5 marks
+17.	Major cities of India are becoming more vulnerable to flood conditions. Discuss. 12.5 marks
+18.	Present an account of the Indus Water Treaty and examine its ecological, economic and political implications in the context of changing bilateral relations. 12.5 marks
+19.	Enumerate the problems and prospects of inland water transport in India. 12.5 marks
+20.	In what way micro-watershed development projects help in water conservation in drought-prone and semi-arid regions of India? 12.5 marks
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	Discuss the essentials of the 69th Constitutional Amendment Act and anomalies, if any, that have led to recent reported conflicts between the elected representatives and the institution of the Lieutenant Governor in the administration of Delhi. Do you think that this will give rise to a new trend in the functioning of the Indian federal politics?
+2.	To what extent is Article 370 of the Indian Constitution, bearing marginal note “temporary provision with respect to the State of Jammu and Kashmir”, temporary? Discuss the future prospects of this provision in the context of Indian polity.
+3.	“The Indian party system is passing through a phase of transition which looks to be full of contradictions and paradoxes.” Discuss.
+4.	Exercise of CAG’s powers in relation to the accounts of the Union and the States is derived from Article 149 of the Indian Constitution. Discuss whether audit of the Government’s policy implementation could amount to overstepping its own (CAG) jurisdiction.
+5.	Discuss each adjective attached to the word ‘Republic’ in the ‘Preamble’. Are they defendable in the present circumstances?
+6.	What was held in the Coelho case? In this context, can you say that judicial review is of key importance amongst the basic features of the Constitution?
+7.	Did the Government of India Act, 1935 lay down a federal constitution? Discuss.
+8.	What is quasi judicial body? Explain with the help of concrete examples.
+9.	Professor Amartya Sen has advocated important reforms in the realms of primary education and primary health care. What are your suggestions to improve their status and performance?
+10.	“In the Indian governance system, the role of non-state actors has been only marginal.” Critically examine this statement.
+11.	“Effectiveness of the government system at various levels and people’s participation in the governance system are inter-dependent/” Discuss their relationship in the context of India.
+12.	In the integrity index of Transparency International, India stands very low. Discuss briefly the legal, political, social and cultural factors that have caused the decline of public morality in India.
+13.	Has the Indian governmental system responded adequately to the demands of Liberalization, Privatization and Globalization started in 1991? What can the government do to be responsive to this important change?
+14.	“Traditional bureaucratic structure and culture have hampered the process of socio-economic development in India.” Comment.
+15.	Examine the main provisions of the National Child Policy and throw light on the status of its implementation.
+16.	“Demographic Dividend in India will remain only theoretical unless our manpower becomes more educated, aware, skilled and creative.” What measures have been taken by the government to enhance the capacity of our population to be more productive and employable?
+17.	“The broader aims and objectives of WTO are to manage and promote international trade in the era of globalization. But the Doha round of negotiations seem doomed due to differences between the developed and the developing countries.” Discuss in the Indian perspective.
+18.	Evaluate the economic and strategic dimensions of India’s Look East Policy in the context of the post Cold War international scenario.
+19.	“Increasing cross-border terrorist attacks in India and growing interference in the internal affairs of member-states by Pakistan are not conducive for the future of SAARC (South Asian Association for Regional Cooperation).” Explain with suitable examples.
+20.	What are the aims and objectives of the McBride Commission of the UNESCO? What is India’s position on these?
+</t>
+  </si>
+  <si>
+    <t>1. (a) Explain how ethics contributes to social and human well-being. (150 words) 10 marks
+(b) Why should impartiality and non-partisanship be considered as foundational values in public services, especially in the present day socio-political context? Illustrate your answer with examples. (150 words) 10 marks
+2.(a) What do you understand by the terms 'governance', 'good governance and 'ethical governance'? (150 words)  10 marks
+(b) Discuss Mahatma Gandhi's concept of seven sins. (150 words) 10 marks
+3.(a) Analyse John Rawls's concept of social justice in the Indian context.(150 words) 10 marks
+(b) Discuss the Public Services Code as recommended by the 2nd Administrative Reforms Commission. (150 words) 10 marks
+4.(a) "Corruption causes misuse of government treasury, administrative inefficiency and obstruction in the path of national development." Discuss Kautilya's views. (150 words) 10 marks
+(b) How could social influence and persuasion contribute to the success of Swachh Bharat Abhiyan ? (150 words) 10 marks
+5. Law and ethics are considered to be the two tools for controlling human conduct so as to make it conducive to civilized social existence.
+(a) Discuss how they achieve this objective. “
+(b) Giving examples, show how the two differ in their approaches. (150 words) 10 marks
+6. Our attitudes towards life, work, other people and society are generally shaped unconsciously by the family and the social surroundings in which we grow up. Some of these unconsciously acquired attitudes and values are often undesirable in the citizens of a modern democratic and egalitarian society.
+(a) Discuss such undesirable values prevalent in today's educated Indians.
+(b) How can such undesirable attitudes be changed and socio-ethical values considered necessary in public services be cultivated in the aspiring and serving civil servants ? (150 words) 10 marks
+7. Anger is a harmful negative emotion. It is injurious to both personal life and work life.
+(a) Discuss how it leads to negative emotions and undesirable behaviours.
+(b) How can it be managed and controlled ? (150 words) 10 marks
+8. "Max Weber said that it is not wise to apply to public administration the sort of moral and ethical norms we apply to matters of personal conscience. It is important to realise that the Stato bureaucracy might possess its own independent bureaucratic morality." Critically analyse this statement. (150 words) 10 marks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	How globalization has led to the reduction of employment in the formal sector of the Indian economy? Is increased informalization detrimental to the development of the country? 12.5 marks
+2.	Women empowerment in India needs gender budgeting. What are the requirements and status of gender budgeting in the Indian context? 12.5 marks
+3.	Pradhan Mantri Jan-Dhan Yojana (PMJDY) is necessary for bringing unbanked to the institutional finance fold. Do you agree with this for financial inclusion of the poorer section of the Indian society? Give arguments to justify your opinion. 12.5 marks
+4.	What are 'Smart Cities'? Examine their relevance for urban development in India. Will it increase rural-urban differences? Give arguments for 'Smart Villages' in the light of PURA and RURBAN Mission. 12.5 marks
+5.	Justify the need for FDI for the development of the Indian economy. Why there is gap between MOUs signed and actual FDIS? Suggest remedial steps to be taken for increasing actual FDIs in India. 12.5 marks
+6.	Comment on the challenges for inclusive growth which include careless and useless manpower in the Indian context. Suggest measures to be taken for facing these challenges. 12.5 marks
+7.	What is water-use efficiency? Describe the role of micro-irrigation in increasing the water-use efficiency. 12.5 marks
+8.	What is allclopatlıy? Discuss its role in major cropping systems of irrigated agriculture.  12.5 marks
+9.	Discuss the role of land reforms in agricultural development. Identify the factors that were responsible for the success of land reforms in India. 12.5 marks
+10.	Given the vulnerability of Indian agriculture to vagaries of nature, discuss the need for crop insurance and bring out the salient features of the Pradhan Mantri Fasal Bima Yojana (PMFBY). 12.5 marks
+11.	Give an account of the current status and the targets to be achieved pertaining to renewable energy sources in the country. Discuss in brief the importance of National Programme on Light Emitting Diodes (LEDs). 12.5 marks
+12.	Discuss India's achievements in the field of Space Science and Technology. How the application of this technology has helped India in its socio-economic development? 12.5 marks
+13.	Why is nanotechnology one of the key technologies of the 21st century? Describe the salient features of Indian Government's Mission on Nanoscience and Technology and the scope of its application in the development process of the country. 12.5 marks
+14.	Rehabilitation of human settlements is one of the important environmental impacts which always attracts controversy while planning major projects. Discuss the measures suggested for mitigation of this impact while proposing major developmental projects.  12.5 marks
+15.	The frequency of urban floods due to high intensity rainfall is increasing over the years. Discussing the reasons for urban floods, highlight the mechanisms for preparedness to reduce the risk during such events. 12.5 marks
+16.	With reference to National Disaster Management Authority (NDMA) guidelines, discuss the measures to be adopted to mitigate the impact of the recent incidents of cloudbursts in many places of Uttarakhand. 12.5 marks
+17.	The terms 'Hot Pursuit' and 'Surgical Strikes' are often used in connection with armed action against terrorist attacks. Discuss the strategic impact of such actions. 12.5 marks
+18.	"Terrorism is emerging as a competitive industry over the last few decades." Analyze the above statement. 12.5 marks
+19.	Border management is a complex task due to difficult terrain and hostile relations with some countries. Elucidate the challenges and strategies for effective border management. 12.5 marks
+20.	Use of Internet and social media by non-state actors for subversive activities is a major security concern. How have these been misused in the recent past? Suggest effective guidelines to curb the above threat. 12.5 marks
+</t>
+  </si>
+  <si>
+    <t>1. Answer the following in about 150 words each : 10x5=50
+(a) Describe the “Basket of eggs topography". 10 marks
+(b) Differentiate between insolation and temperature and explain anomalous temperature. 10 marks
+(c) Discuss Maritime Zones. 10 marks
+(d) Bring out the ecological significance of Tropical Rainforest Biome. 10 marks
+(e) Explain the hydro-meteorological hazards in the Himalayas. 10 marks
+2.(a) "In explaining the concept of 'Pediplanation', King combined the ideas of Davis, Penck and Wood with his own." Elaborate. 20 marks
+(b) Compare the origin and weather conditions associated with the tropical and temperate cyclones.15 marks
+(c) Give a reasoned account on how the impact of Global Warming differs from one part of the Earth to the other. 15 marks
+3.(a) Discuss the significance of World Climate Research Programme (WCRP) and its core projects in the understanding of climatic change. 20 marks
+(b) "The relationship between the winds and the currents is best seen in the Indian Ocean." Justify. 15 marks
+(c) Write a critical note on the tendency of use and throw" in the context of economic status and environment. 15 marks
+4.(a) Bring out the various ecological problems associated with the exploitation and use of oceans and their resources. 20 marks
+(b) "Geological structure has a dominant control on landforms and is reflected on them." Discuss. 15 marks
+(c) Describe Newbigin's scheme of Floristic regions of the world and explain the Mediterranean Floristic region. 15 marks
+5. Answer the following in about 150 words each : 10x5=50
+(a) "Areal differentiation forms the core theme in Geography." Explain. 10 marks
+(b) Explain 'Isodapane'. 10 marks
+(c) Discuss the major characteristics of CBD'. 10 marks
+(d) Elaborate the idea of "Compage'. 10 marks
+(e) Discuss the application of Gravity model in Geographical studies, 10 marks
+6.(a) Trace the origin and progress of Quantitative Revolution in Geography and bring out its merits and demerits. 20 marks
+(b) Discuss the role of site in determining the types and patterns of rural settlements.15 marks
+(c) What is a "region' ? Describe "Thiessen' polygon method of regional delimitation. 15 marks
+7.(a) Describe the regional pattern of Life Expectancy in the world and bring out the challenges faced by developing countries due to increasing life expectancy. 20 marks
+(b) Discuss the relevance of 'Stop and Go Determinism' in the present day context. 15 marks
+(c) Define and differentiate between boundaries and frontiers. Describe the geometrical boundaries with suitable examples. 15 marks
+8.(a) Give a critical account of Losch's theory of central places. 20 marks
+(b) "Linkages between resource-endowed regions and resource-utilizing regions determine the pattern of international trade." Elaborate with suitable examples. 15 marks
+(c) In what ways can geographers contribute towards optimal land use planning in a region ? 15 marks</t>
+  </si>
+  <si>
+    <t>1.(a) On the outline map of India provided to you, mark the location of all of the following. Write in your QCA Booklet the significance of these locations, whether physical/commercial/economic/ecological/Environmental/cultural, in not more than 30 words for each entry : 2x10=20 marks
+(i) Pir Panjal Range
+(ii) River Indravati
+(iii) Nathu La Pass
+(iv) Jog Falls
+(v) Pulicat Lake
+(vi) Kudankulam
+(vii) Nalanda
+(viii) Kudremukh
+(ix) Headquarters of N-E Railways
+(x) Farakka Barrage
+(b) Explain the shifting of river courses and river capturing in the Himalayas. (In about 150 words) 10 marks
+(c) Mention the space relationship of India with neighbouring countries. (In about 150 words) 10 marks
+(d) Define agricultural intensity and bring out its regional distribution in India. (In about 750 words) 10 marks
+2.(a) Discuss the role of spatial pattern of rainfall and temperature in the delimitation of climatic regions of India especially with reference to Stamp's climatic regionalization. (In about 250 words) 20 marks
+(b) Describe the flood-prone areas and their management problems in the Ganga Plains. (In about 200 words) 15 marks
+(c) Explain the New Industrial Policies in India. (In about 200 words) 15 marks
+3.(a) Identify the important biotic resource regions of India and highlight their problems. (In about 250 words) 20 marks
+(b) Point out the ethnic disparities in the N-E India. (In about 200 words) 15 marks
+(c) Give an account of the development of renewable resources of India. (In about 200 words) 15 marks
+4.(a) Bring out the development of river water transport in India and its role in regional development. (In about 250 words) 20 marks
+(b) Explain the impact of economic development on environmental degradation in India. (In about 200 words) 15 marks
+(c) Describe the distribution of black soils in India and their specific use for agriculture. (In about 200 words) 15 marks
+5. For Question Nos. 5(a) to 5(e), write on each in about 150 words: 5x10=50 marks
+(a) Discuss the factors influencing the distribution of sex ratio in India. 10 marks
+(b) "The Bokaro Iron and Steel Plant is an example of Industrial Complex." Explain. 10 marks
+(c) How do slums develop? Give concrete suggestions for their improvement. 10 marks
+(d) Explain the role of India in the geo-politics of South Asia. 10 marks
+(e) Analyze the pattern of India's trade with the S-E Asian countries. 10 marks
+6.(a) Present a comparative analysis of geographical factors responsible for distribution of human settlements in Rajasthan desert and North-Eastern regions of India. (In about 250 words) 20 marks
+(b) Explain with suitable examples the role of road transport in agricultural development in India. (In about 200 words) 15 marks
+(c) Evaluate the impact of technology on resource utilization in India. (In about 200 words) 15 marks
+7.(a) Analyze the location, distributional pattern and problems of cotton textile industries in India. (In about 250 words) 20 marks
+(b) Describe the major tribal regions of India and their problems. (In about 200 words) 15 marks
+(c) Examine the causes of regional disparities in economic development in India. (In about 200 words) 15 marks
+8.(a) Describe the causes and effects of urbanization in India and explain its impact on rural landscape and urban ecology. (In about 250 words) 20 marks
+(b) "India has paid heavily for achievement of Green Revolution in the form of economic, social and ecological cost." Discuss. (In about 200 words) 15 marks
+(c) Explain the origin, dimension and implications of Sino-Indian border dispute. (In about 200 words) 15 marks</t>
+  </si>
+  <si>
+    <t>1.	Farming has lost the ability to be a source of substance for majority of farmers in India
+2.	Impact of new economic measures on fiscal ties between the union and states in India
+3.	Destiny of a nation is shaped in its classrooms
+4.	Has the non alignment movement lost its relevance in a multipolar world?
+5.	Joy is simplest form of gratitude
+6.	Fulfilment of new woman in India is a myth.
+7.	We may brave human laws but can not resist natural laws
+8.	Social media is inherently a selfish medium</t>
+  </si>
+  <si>
+    <t>1.	How do you justify the view that the level of excellence of Gupta Numismatic Art is not at all noticeable in later times ? (150 words)
+2.	Clarify how Mid-eighteenth century India was beset with the spectre of a fragmented Polity ? (150 words)
+3.	Why did the Moderates fails to carry conviction with the  nation about their proclaimed ideology and political goals by the end of nineteenth century? (150 words)
+4.	What problems were germane to the decolonization in the Malay Peninsula? (150 words)
+5.	How does the Juno Mission of NASA help to understand the origin and evolution of earth ? (150 words)
+6.	“In spite of adverse environmental impact, coal mining is still inevitable for Development”. Discuss. (150 words)
+7.	Mention the advantages of Cultivation of pulses because of which year 2016 was declared as the International year of Pulses By the United Nations. (150 words)
+8.	How does the crysosphere affect global climate ? (150 words)
+9.	In the context of diversity of India, can it be said that the regions form cultural units rather than the states? Give reasons with examples for your viewpoint. (150 words).
+10.	What are the two major legal initiatives by state since Independence, addressing discrimination against Scheduled Tribes (ST) ? (150 words).
+11.	The spirit and tolerance not only an interesting feature of Indian Society from very early times but it is also playing an important role in the present. Elaborate. (250 words).
+12.	Examine how the decline of artisanal industry in colonial India crippled the rural economy.(250 words)
+13.	Highlight the importance of the new objectives that got added to the vision of Indian Independence since the twenties of the last century. (250 words)
+14.	Account for variations in oceanic salinity and discuss its multi-dimensional effects.
+15.	Petroleum refineries are not necessarily located nearer to crude oil producing areas, particularly in many of the developing countries. Explain its implications. (250 words)
+16.	In what way can floods be converted to sustainable source of irrigation and all weather inland navigation in India ? (250 words)
+17.	What characteristics can be assigned to monsoon climate that succeeds in feeding more than 50 percent of World population residing in Monsoon Asia ? (250 words)
+18.	The women’s questions arose in modern India as the part of 19th century social reform movement. What are the major issues and debates concerning women in that period? (250 words)
+19.	Distinguish between religiousness/religiosity and Communalism giving one example of how the farmer has got transformed into latter in Independent India? (250 words)
+20.	“The growth of cities as I.T Hubs has opened new avenues of employment, but has also created new problems”. Substantiate this statement with examples. (250 words).</t>
+  </si>
+  <si>
+    <t>1.	The local self-government system in India has not proved to be effective instrument of governance.” Critically examine the statement and give your views to improve the situation. (10)
+2.	Critically examine the Supreme court’s judgment on National Judicial appointments Commission act, 2014 with reference to appointment of judges of higher judiciary in India.            (10)
+3.	“Simultaneous election to the lok sabha and the state Assemblies will limit the amount of time and money spent in electioneering but it will reduce the government’s accountability to the people.” Discuss                                    (10)
+4.	How do pressure groups influence Indian political process? Do you agree with this view that informal pressure groups have emerged as more powerful than formal pressure groups in recent years?                                            (10)
+5.	Discuss the role of Public account Committee in establishing accountability of the government to the people.
+6.	“To ensure effective implementation of policies addressing water, sanitation and hygiene needs the identification of the beneficiary segments is to be synchronized with the anticipated outcomes.” Examine the statement in the context of the WASH scheme.      (10)
+7.	Does the rights of persons with Disabilities Act, 2016 ensure effective mechanism for the empowerment and inclusion of the intended beneficiaries in the society? Discuss    (10)
+8.	Hunger and poverty are the biggest challenges for good governance in India still today. Evaluate how far successive governments have progressed in dealing with these humongous problems. Suggest measure for improvement. (10)
+9.	“China is using its economic relation and positive trade surplus as tools to develop potential military power status in Asia” In the light of this statement. Discuss its impact on India as her neighbor.   (10)
+10.	What are the main function of the United Nations Economic and social Council (ECOSOC)? Explain different function commission attached to it.  (10)
+11.	Explain the salient features of the Constitution (One Hundred and First Amendment) Act, 2016. Do you think it is efficacious enough “to remove cascading effect of taxes and provide for common national market for goods and services”?    (15)
+12.	Examine the scope of Fundamental Rights in the light of the latest judgment of the Supreme Court on Right to Privacy.     (15)
+13.	The Indian Constitution has provisions for holding joint session of the two houses of the parliament. Enumerate the occasions when this would normally happen and also the occasions when it cannot, with reason thereof.      (15)
+14.	To enhance the quality of democracy of India the Election Commission of India has proposed electoral reforms in 2016. What are the suggested reforms and how far are they significant to make democracy successful?        (15)
+15.	Is the national commission for women able to strategize and tackle the problems that women face at both public and private spheres?    (15)
+16.	The emergence of the self-help groups (SHGs) in contemporary times points to the slow but steady withdrawal of the state from development activities.” Examine the role of the SHGs in developmental activities and the measures taken by the Government of India to promote the SHGs.    (15)
+17.	Poverty alleviation programmes in India remain mere showpieces until and unless they are backed up by political will.” Discuss with reference to the performance of the major poverty alleviation programmes in India.    (15)
+18.	Initially Civil services in India were designed to achieve the goals of neutrality and effectiveness, which seems to be lacking in the present context. Do you agree with the view that drastic reforms are required in Civil Services? Comment.     (15)
+19.	The question of India’s Energy Security constitutes the most important part of India’s economic progress. Analyze India’s energy policy cooperation with west Asian countries.     (15)
+20.	Indian Diaspora has an important role to play in south-East Asian countries’ economy and society. Appraise the role of Indian Diaspora in South-East Asia in this context.      (15)</t>
+  </si>
+  <si>
+    <t>Among several factors for India’s potential growth, savings rate is the most effective one. Do you agree? What are the other factors available for growth potential?    (10 Marks)
+Account for the failure of manufacturing sector in achieving the goal of labour-intensive exports. Suggest measures for more labour-intensive rather than capital – intensive exports.    (10 Marks)
+Examine the development of airports in India through joint ventures under Public – private Partnership (PPP) model. What are the challenges faced by the authorities in this regard?    (10 Marks)
+Explain various types of revolutions, took place in agriculture after Independence in India. How these revolutions have helped in poverty alleviation and food security in India?    (10 Marks)
+What are the reasons for poor acceptance of cost-effective small processing unit? How the food processing unit will be helpful to uplift the socio-economic status of poor farmers?    (10 Marks)
+Stem cell therapy is gaining popularity in India to treat a wide variety of medical conditions including Leukaemia, Thalassemia, damaged cornea and servere burns. Describe briefly what stem cell therapy is and what advantages it has over other treatments?    (10 Marks)
+India has achieved remarkable successes in unmanned space missions including the Chandrayaan and Mars Orbitter Mission, but has not ventured into manned space missions. What are the main obstacles to launching a manned space mission, both in terms of technology and logistics? Examine critically.     (10 Marks)
+Not many years ago, river linking was a concept but it is becoming a reality in the country. Discuss the advantages of river linking and its possible impact on the environment.     (10 Marks)
+Discuss the potential threats of Cyber attack and the security framework to prevent it.    (10 Marks)
+The North- East region of India  has been infested with insurgency for a very long time. Analyze the major reasons for the survival of armed insurgency in this region.     (10 Marks)
+One of intended objectives of the Union Budget 2017-18 is to transform, energise and clean India’. Analyse the measure proposed in the Budget 2017-18 to achieve the objective.     (15 Marks)
+“Industrial growth rate has lagged-behind in the overall growth of Gross-Domestic-product (GDP) in the post-reform period.” Give reasons. How far the recent changes in Industrial-policy are capable of increasing the industrial growth rate?     (15 Marks)
+What are the salient features of inclusive growth? Has India been experiencing such a growth process? Analyse and suggest measures for inclusive growth.      (15 Marks)
+What are the major reasons for declining rice and wheat yield in the cropping system? How crop diversification is helpful to stablise the yield of the crops in the system?     (15 Marks)
+How do subsidies affect the cropping pattern, crop diversity and economy of farmers? What is the significance of the crop insurance, minimum support price and food processing for small and marginal farmers ?       (15 Marks)
+Give an account of the growth and development of nuclear science and technology in India. What is the advantages of fast breeder reactor programme in India?     (15 Marks)
+‘Climate change’ is a global problem. How India will be affected by climate change? How Himalayan and coastal states of India will be affected by climate change?     (15 Marks)
+On December 2004, tsunami brought havoc on fourteen countries including India. Discuss the factor responsible for occurrence of tsunami and its effects on life and economy. In the light of guidelines of NDMA (2010) describe the mechanisms for preparedness to reduce the risk during such events.     (15 Marks)
+Mob violence is emerging as a serious law and order problem in India. By giving suitable example, analyze the causes and consequences of such violence.      (15 Marks)
+The scourge of terrorism is a grave challenge to national security. What solutions do you suggest to curb this growing menace? What are the major sources of terrorist funding?        (15 Marks)</t>
+  </si>
+  <si>
+    <t>Q1. Conflict  of interest in  the  public sector arises when
+(A) Official duties. 
+(B) Public  interest, and
+(C) Personal interest,
+Are taking priority one above the other.
+How can this conflict in administration be resolved? Describe with an example. (150 Words)
+Q2. Examine the relevance of the following in the context  of civil service : (150 Words)
+(A) Transparency
+(B) Accountability
+(C) Fairness and justice
+(D) Courage of conviction 
+(E) Sprit of service
+Q3.   Young people  with ethical conduct are not willing to come forward to join  active politics.
+Suggest steps to motivate them to come forward. (150 Words)
+Q4.   (a) One of the taste of integrity is complete refusal to be compromised. Explain with reference to a real  life example.  (150 Words)
+         (b) Corporate  social responsibility  makes companies  more profitable and sustainable. Analyse. (150 Words)
+Q5.    (a)    "Great ambition is the passion of a great character. Those endowed with it may perform very good  or very bad acts.
+All depends on the principles Which direct them." -  Napolean  Bonaparte.
+Stating examples mention the rulers (i) who have harmed society and country, (ii) who worked for the development of society and country.  (150 Words)
+           (b)    "if a country is to be corruption  free and become a nation of a beautiful mind,  I  strongly feel  there are three key societal members who can make a difference. They are the father, the  mother and the techer." - A.P.J.  Abdul Kalam. Analyse.  (150 Words)
+Q6.      (a)  how will you apply emotional intelligence  in administrative practice?
+             (b)  Strength, peace and Security  are considerd to be the pillars of  international relations. Elucidate .
+Q7.       (a)  The crisis of ethical values in modern times is traced  to a narrow perception of the good life. Discuss.
+             (b)  Increased national wealth did not  result in equitable distribution of its benefits. It has created only some ‘’enclaves of modernity and prosperity for a small minority at the cost the majority.’’ Justify.
+Q8.      (a)    Discipline generally implies following the order and subordination.However it may be  counterproductive for the organisation. Discuss.
+             (b)   Without commonly shared and widely entrenched moral values and obligation, neither the law, nor democratic government, nor even the market economy  will function properly.
+              What do you understand by this statement? Explain with illustration in the contemporary times.
+SECTION – B
+Q9. You are an honest and responsible civil servant. You often observe the following:
+(a) There is a general perception that adhering to ethical conduct one may face difficulties to oneself and cause problems for the family, whereas unfair practices may help to reach the career goals.
+(b) When the number of people adopting unfair means is large, a small minority having a penchant towards ethical means makes no difference. 
+(c) Sticking to ethical means is detrimental to the larger developmental goals
+(d) While one may not involve oneself in large unethical practices, but giving and accepting small gifts makes the system more efficient. 
+Examine the above statements with their merits and demerits. (250 Words)
+Q10. You are aspiring to become an IAS officer and you have cleared various stages and now you have been selected for the personal interview. On the day of the interview, on the way to the venue you saw an accident where a mother and child who happen to be your relatives were badly injured. They needed immediate help.
+What would you have done in such a situation? Justify your action. (250 Words)
+Q11. You are the head of the Human Resources department of an organisation. One day one of the workers died on duty. His family was demanding compensation. However, the company denied compensation because it was revealed in investigation that he was drunk at the time of the accident. The workers of the company went to strike demanding compensation for the family of the deceased. The Chairman of the management board has asked for your recommendation.
+What recommendation would you provide the management?
+Discuss the merits and demerits of each of the recommendations. (250 Words)
+Q12. You are the manager of a spare parts company A and you have to negotiate a deal with the manager of a large manufacturing company B. The deal is highly competitive and sealing the deal is critical for your company. The deal is being worked out over a dinner. After dinner the manager of manufacturing company B offered to drop you to the hotel in his car. On the way to hotel he happens to hit motorcycle injuring the motorcyclist badly. You know the manager was driving fast and thus lost control. The law enforcement officer comes to investigate the issue and you are the sole eyewitness to it. Knowing the strict laws pertaining to road accidents you are aware that your honest account of the incident would lead to the prosecution of the manager and as a consequence the deal is likely to be jeopardised, which is of immense importance to your company.
+What are the dilemmas you face? What will be your response to the situation? (250 Words)
+Q13. A building permitted for three floors, while being extended illegally to 6 floors by a builder, collapses. As a consequence, a number of innocent labourers including women and children died. These labourers are migrants of different places. The government immediately announced cash relief to the aggrieved families and arrested the builder.
+Give reasons for such incidents taking place across the country. Suggest measures to prevent their occurrence. (250 Words)
+Q14. You are a Public Information Officer (PIO) in a government department. You are aware that the RTI Act 2005 envisages transparency and accountability in administration. The act has functioned as a check on the supposedly arbitrarily administrative behaviour and actions. However, as a PIO you have observed that there are citizens who filed RTI applications not for themselves but on behalf of such stakeholders who purportedly want to have access to information to further their own interests. At the same time there are these RTI activists who routinely file RTI applications and attempt to extort money from the decision makers. This type of RTI activism has affected the functioning of the administration adversely and also possibly jeopardises the genuineness of the applications which are essentially aimed at getting justice.
+What measures would you suggest to separate genuine and non-genuine applications? Give merits and demerits of your suggestions. (250 Words)</t>
+  </si>
+  <si>
+    <t>Q1. Answer the following questions in about 150 words each :   (10x5=50 Marks)
+(a) Write a note on pseudovolcanic features.
+(b) Distinguish between low energy coasts and coral coasts.
+(c) Discuss the impacts of ocean currents on air mass behaviour.
+(d) Describe the characteristics of biological deserts.
+(e) Explain the concept of micro carbon sink and its relevance.
+Q2.
+(a) Discuss the forces which govern the air movement on the Earth's surface.  (20 Marks)
+(b) "The knowledge of slope analysis has limited field application in the slope management." Explain.  (15 Marks)
+(c) Describe the configuration of the Pacific Ocean floor.  (15 Marks)
+Q3.
+(a) "Climate change is a reality." Explain with suitable examples. (20 Marks)
+(b) Distinguish between the characteristics of Chernozem and Sierozem soils.  (15 Marks)
+(c) Give a classification of plants based on the amount of water requirement.  (15 Marks)
+Q4.
+(a) Discuss the concept of Periglacial cycle as propounded by Peltier.  (20 Marks)
+(b) "Climate, slope gradient and rock structure influence the avulsion of channels." Explain.  (15 Marks)
+(d) Discuss the Perception, Attitude, Value and Emotion (PAVE) Theory of environmental management.  (15 Marks)
+Q5. Answer the following question in about 150 words each :   (10x5=50 Marks)
+(a) Explain the concept of Time-Geography.
+(b) "Whittlesey's agricultural regions are relevant even today." Discuss.
+(c) Write an explanatory note on geographical systems.
+(d) "The traditional cultural identities are at loss with the growth of global connectivity." Explain.
+(e) Give an account on sustainable development and its components.
+Q6.
+(a) Discuss the contemporary paradigms of Geography.  (20 Marks)
+(b) "The intensity of energy crisis varies regionally." Explain.  (15 Marks)
+(c) Examine the causes and consequences of forces migration of population in the present context.  (15 Marks)
+Q7.
+(a) Discuss the applicability of Christaller's Central Place Theory.  (20 Marks)
+(b) "There are considerable demographic similarities between West European nations and Japan." Explain.  (15 Marks)
+(c) Define the quality of life and explain its parameters with adequate examples.  (15 Marks)
+Q8.
+(a) "The Heartland Theory is gaining importance once again." Comment.  (20 Marks)
+(b) Examine the role of small towns in the regional development process.  (15 Marks)
+(c) Explain the concept of social capital in relation to India.  (15 Marks)</t>
+  </si>
+  <si>
+    <t>Q1. (a) On the outline map of India provided to you, mark the location of all of the following. Write in your QCA Booklet the significance of these locations. whether physical/ commercial/economic/ecological/environmental/cultural, in not more than 30 words for each entry :  (2x10=20 Marks)
+(i) Thumba
+(ii) Nauachar Island
+(iii) Doddabetta
+(iv) Devsthal
+(v) Pangong Lake
+(vi) Hampi
+(vii) Havelock Island
+(viii) Luni River
+(ix) Daringbadi
+(x) Dudhsagar Waterfalls
+(b) Give a reasoned account of unusual pattern of distribution of monsoonal rainfall in India in 2017.  (10 Marks)
+(c) Explain the inter-State issues involved in implementation of the Satluj-Yamuna Link Canal Project.  (10 Marks)
+(d) Small towns in India have Problems and Prospects of their own. Elaborate.  (10 Marks)
+Q2.
+(a) Discuss the freshwater crisis in India and prepare a blueprint. for its sustainable management.  (20 Marks)
+(b) Identify the Naxal-affected areas in India and discuss their socio-economic problems.  (15 Marks)
+(c) Critically examine the feasibility of development of a comprehensive network of airways in India.  (15 Marks)
+Q3.
+(a) "An effective three-tier Panchayat Raj System will strengthen the bottom-up approach to multilevel planning in India." Explain.   (20 Marks)
+(b) "Linguistic diversity is an asset as well as a challenge in India." Explain the statement focussing on the distribution of languages and the major steps taken to address the related issues.   (15 Marks)
+(c) How may tourism in hilly areas of India be developed as an important source of economy?   (15 Marks)
+Q4.
+(a) Mention various methods of functional classification of towns in India and explain the method applied by Asok Mitra.
+(b) Farmers' suicide is one of the major agrarian problems in India. Bring out its causes and suggest the remedial measures with special reference to Maharashtra, Andhra Pradesh and Punjab.
+(c) Land reform is a key to modern agriculture in India. Describe various measures take in this direction after Independence.  (15 Marks)
+Q5. Answer the following questions in about 150 words each :   (10x5=50 Marks)
+(a) Explain the role of 'Hill Transport Subsidy Scheme' in reducing regional imbalances in areas identified by the Government of India.
+(b) Bring out the geopolitical implications of Doklam dispute in the context of Indo-China relations.
+(c) Bring out the significance of Indian Regional Navigation Satellite System (IRNSS).
+(d) Mini steel plants can act as an instrument of decentralization of iron and steel industry in India. Explain.
+(e) Goods and Services Tax (GST) has differential impact on developed and backward States of the country. How and Why ?
+Q6.
+(a) Interlinking of rivers may serve as a major source of assured irrigation and all-weather inland navigation in India. Comment on its feasibility taking into account physical, economic and ecological implication.   (20 Marks)
+(b) Religious minorities are largely concentrated in border States of India. Discuss its causes and consequences.   (15 Marks)
+(c) What do you understand by soil pollution ? Delineate the areas vulnerable to it in India and suggest remedial measures.   (15 Marks)
+Q7.
+(a) Integrated development of road and rail networks in a complementary framework is a prerequisite for regional development. Explain with reference to North-Eastern Region of India.   (20 Marks)
+(b) Describe the salient features of Sagar Mala Project and highlight its role in prt-led development of coastal regions in India.   (15 Marks)
+(c) Justify the inclusion of Meghalaya in Peninsular India and discuss its vegetation and soil types.   (15 Marks)
+Q8.
+(a) Name the major industrial regions of India indicating the bases of their identification. Highlight their basic problems.   (20 Marks)
+(b) Drainage pattern in Peninsular India is a result of its geological structure and topography. Elaborate.   (15 Marks)
+(c) Why has solar energy in India not been developed to desired level in spite of its high potential?   (15 Marks)</t>
+  </si>
+  <si>
+    <t>1.	Alternative technologies for a climate change resilient India.
+2.	A good life is one inspired by love and guided by knowledge.
+3.	Poverty anywhere is a threat to prosperity everywhere.
+4.	Management of Indian border disputes - a complex task.
+5.	Customary morality cannot be a guide to modern life.
+6.	“The past’ is a permanent dimension of human consciousness and values.
+7.	A people that values its privileges above its principles loses both.
+8.	Reality does not conform to the ideal, but confirms it.</t>
+  </si>
+  <si>
+    <t>1.	Safeguarding the Indian art heritage is the need of the moment. Discuss. (Answer in 150 words) 10 Marks
+2.	Assess the importance of the accounts of the Chinese and Arab travellers in the econstruction of the history of India. (Answer in 150 words)10 Marks
+3.	Throw light on the significance of the thoughts of Mahatma Gandhi in the present times. (Answer in 150)10 Marks
+4.	Why is Indian Regional Navigational Satellite System (IRNSS) needed ? How does it help in navigation ? (Answer in 150 words)10 Marks
+5.	Why is India taking keen interest in resources of Arctic Region ? (Answer in 150 words)10 Marks
+6.	Define mantle plume and explain its role in plate tectonics. (Answer in 150 words)10 Marks
+7.	What are the consequences of spreading of 'Dead Zones' on marine ecosystem? (Answer in 150 words) 10 Marks
+8.	“Caste system is assuming new identities and associational forms. Hence, caste system cannot be eradicated in India.” Comment. (Answer in 150 words) 10 Marks
+9.	‘Despite implementation of various programmes for eradication of poverty by the government in India, poverty is still existing.' Explain by giving reasons. (Answer in 150 words)10 Marks
+10.	How the Indian concept of secularism is different from the western model of secularism ? Discuss. (Answer in 150 words)10 Marks
+11.	The Bhakti movement received a remarkable re-orientation with the advent of Sri Chaitanya Mahaprabhu. Discuss. (Answer in 250 words) 15 Marks
+12.	Discuss whether formation of new states in recent times is beneficial or not for the economy of India. (Answer in 250 words) 15 Marks
+13.	Why indentured labour was taken by the British from India to other colonies ? Have they been able to preserve their cultural identity over there ? (Answer in 250 words) 15 Marks
+14.	“The ideal solution of depleting ground water resources in India is water harvesting system. How can it be made effective in urban areas ? (Answer in 250 words) 15 Marks
+15.	Defining blue revolution, explain the problems and strategies for pisciculture development in India. (Answer in 250 words) 15 Marks
+16.	What is the significance of Industrial Corridors in India ? Identifying industrial corridors, explain their main characteristics. (Answer in 250 words) 15 Marks
+17.	Mention core strategies for the transformation of aspirational districts in India and explain the nature of convergence, collaboration and competition for its success. (Answer in 250 words) 15 Marks
+18.	"Women's movement in India has not addressed the issues of women of lower social strata. Substantiate your view. (Answer in 250 words) 15 Marks
+19.	"Globalization is generally said to promote cultural homogenization but cultural specificities appear to be strengthened in the Indian Society’ Elucidate. (Answer in 250 words) 15 Mark
+20.	‘‘Communalism arises either due to power struggle or relative deprivation.’ Argue by giving suitable illustrations. (Answer in 250 words) 15 Marks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.	 In the light of recent controversy regarding the use of Electronic Voting Machines (EVM), what are the challenges before the Election Commission of India to ensure the trustworthiness of elections in India? (10 Marks)
+2.	Whether National Commission for Scheduled Castes (NCSC) can enforce the implementation of constitutional reservation for the Scheduled Castes in the religious minority institutions? Examine. (10 Marks)
+3.	Under what circumstances can the Financial Emergency be proclaimed by the President of India? What consequences follow when such a declaration remains in force? (10 Marks)
+4.	Why do you think the committees are considered to be useful for parliamentary work? Discuss, in this context, the role of the Estimates Committee. (10 Marks)
+5.	“The Comptroller and Auditor General (CAG) has a very vital role to play.” Explain how this is reflected in the method and terms of his appointment as well as the range of powers he can exercise. (10 Marks)
+6.	“Policy contradictions among various competing sectors and stakeholders have resulted in inadequate ‘protection and prevention of degradation to environment.” Comment with relevant illustrations.
+7.	Appropriate local community level healthcare intervention is a prerequisite to achieve ‘Health for All’ in India. Explain.
+8.	E-governance in not only about utilization of the power of new technology, but also much about critical importance of the ‘use value’ of information. Explain. (10 Marks)
+9.	“India’s relations with Israel have, of late, acquired a depth and diversity, which cannot be rolled back.” Discuss. (10 )
+10.	A number of outside powers have entrenched themselves in Central Asia, which is a zone of interest to India. Discuss the implications, in this context, of India’s joining the Ashgabat Agreement, 2018. (10 Marks)
+11.	Whether the Supreme Court Judgement (July 2018) can settle the political tussle between the Lt. Governor and elected government of Delhi? Examine. (15 Marks)
+12.	How far do you agree with the view that tribunals curtail the jurisdiction of ordinary courts? In view of the above, discuss the constitutional validity and competency of the tribunals in India. (15 Marks)
+13.	Indian and USA are two large democracies. Examine the basic tenets on which the two political systems are based.
+14.	How is the Finance Commission of India constituted? What do you know about the terms of reference of the recently constituted Finance Commission? Discuss. (15 Marks)
+15.	Assess the importance of the Panchayat system in India as a part of local government. Apart from government grants, what sources the Panchayats can look out for financing developmental projects? (15 Marks)
+16.	Multiplicity of various commissions for the vulnerable sections of the society leads to problems of overlapping jurisdiction and duplication of functions. Is it better to merge all commissions into an umbrella Human Rights Commission? Argue your case. (15 Marks)
+17.	How far do you agree with the view that the focus on lack of availability of food as the main cause of hunger takes the attention away from ineffective human development policies in India? (15 Marks)
+18.	The Citizen’s Charter is an ideal instrument of organisational transparency and accountability, but it has its own limitations. Identify the limitations and suggest measures for greater effectiveness of the Citizen’s Charters. (15 Marks)
+19.	What are the key areas of reform if the WTO has to survive in the present context of ‘Trade War’, especially keeping in mind the interest of India? (15 Marks)
+20.	In what ways would the ongoing US-Iran Nuclear Pact Controversy affect the national interest of India? How should India respond to its situation? (15 Marks) 
+</t>
+  </si>
+  <si>
+    <t>1.	“Access to affordable, reliable, sustainable and modern energy is the sine qua non to achieve Sustainable Development Goals (SDGs).” Comment on the progress made in India in this regard. (Answer in 150 words) 10 Marks
+2.	Comment on the important changes introduced in respect of the Long-term Capital Gains Tax (LCGT) and Dividend Distribution Tax (DDT) in the Union Budget for 2018-2019. (Answer in 150 words) 10 Marks
+3.	What do you mean by Minimum Support Price (MSP)? How will MSP rescue the farmers from the low income trap? (Answer in 150 words) 10 Marks
+4.	Examine the role of supermarkets in supply chain management of fruits, vegetables and food items. How do they eliminate number of intermediaries? (Answer in 150 words) 10 Marks
+5.	Discuss the work of 'Bose-Einstein Statistics' done by Prof. Satyendra Nath Bose and show how it revolutionized the field of Physics. (Answer in 150 words) 10 Marks
+6.	What are the impediments in disposing the huge quantities of discarded solid wastes which are continuously being generated? How do we remove safely the toxic wastes that have been accumulating in our habitable environment? (Answer in 150 words) 10 Marks
+7.	What is wetland? Explain the Ramsar concept of wise use' in the context of wetland conservation. Cite two examples of Ramsar sites from India. (Answer in 150 words) 10 Marks
+8.	Sikkim is the first ‘Organic State' in India. What are the ecological and economical benefits of Organic State? (Answer in 150 words) 10 Marks
+9.	The China-Pakistan Economic Corridor (CPEC) is viewed as a cardinal subset of China's larger 'One Belt One Road' initiative. Give a brief description of CPEC and enumerate the reasons why India has distanced itself from the same. (Answer in 150 words) 10 Marks
+10.	Left Wing Extremism (LWE) is showing a downward trend, but still affects many parts of the country. Briefly explain the Government of India's approach to counter the challenges posed by LWE. (Answer in 150 words) 10 Marks
+11.	How are the principles followed by the NITI Aayog different from those followed by the erstwhile Planning Commission in India? (Answer in 250 words) 15 Marks
+12.	How would the recent phenomena of protectionism and currency manipulations in world trade affect macroeconomic stability of India? (Answer in 250 words) 15 Marks
+13.	Assess the role of National Horticulture Mission (NHM) in boosting the production, productivity and income of horticulture farms. How far has it succeeded in increasing the income of farmers? (Answer in 250 words) 15 Marks
+14.	How has the emphasis on certain crops brought about changes in cropping patterns in recent past? Elaborate the emphasis on millets production and consumption. (Answer in 250 words) 15 Marks
+15.	Why is there so much activity in the field of biotechnology in our country? How has this activity benefitted the field of biopharma? (Answer in 250 words) 15 Marks
+16.	With growing energy needs should India keep on expanding its nuclear energy programme? Discuss the facts and fears associated with nuclear energy. " (Answer in 250 words) 15 Marks
+17.	How does biodiversity vary in India? How is the Biological Diversity Act, 2002 helpful in conservation of flora and fauna? (Answer in 250 words) 15 Marks
+18.	Describe various measures taken in India for Disaster Risk Reduction (DRR) before and after signing 'Sendai Framework for DRR (2015-2030)'. How is this framework different from ‘Hyogo Framework for Action, 2005’? (Answer in 250 words) 15 Marks
+19.	Data security has assumed significant importance in the digitized world due to rising cyber crimes. The Justice B. N. Srikrishna Committee Report addresses issues related to data security. What, in your view, are the strengths and weaknesses of the Report relating to protection of personal data in cyber space? (Answer in 250 words) 15 Marks
+20.	India's proximity to two of the world's biggest illicit opium-growing states has enhanced her internal security concerns. Explain the linkages between drug or illicit activities such as gunrunning, money laundering and human trafficking. What counter-measures should be taken to prevent the same? (Answer in 250 words) 15 Marks</t>
+  </si>
+  <si>
+    <t>Q1. (a) State the three basic values, universal in nature, in the context of civil services and bring out their importance. (150 words) 10 Marks
+Q1. (b) Distinguish between “Code of ethics” and “Code of conduct” with suitable examples. (150 words) 10
+Q2. (a) What is meant by public interest? What are the principles and procedures to be followed by the civil servants in public interest? (150 words) 10
+Q2. (b) “The Right to information Act is not all about citizens? Empowerment  alone, it essentially redefines the concept of accountability.” Discuss. (150 words) 10
+Q3. (a) What is meant by conflict of interest? Illustrate with examples, the difference between the actual and potential conflicts of interest.(150 words) 10
+Q3. (b) “In looking for people is hire, you look for three qualities integrity intelligence and energy. And if they do not have the first, the other two will kill you.” – warren Buffett. What do you understand by this statement in the present-day scenario” Explain. (150 words) 10
+Q4. (a) “In doing a good thing, everything is permitted which is not prohibited expressly or by clear implication.” Examine the statement with suitable examples in the context of a public servant discharging his/her duties. (150 words) 10
+Q4. (b) With regard to morality of actions, one view is that means are of paramount importance and the other view is that the ends justify the means. Which view do you think is more appropriate? Justify your answer. (150 words) 10
+Q5. (a) Suppose the Government of India is thinking of constructing a dam in a mountain valley bound by forests and inhabited by ethnic communities. What rational policy should it resort to in dealing with unforeseen contingencies? (150 words) 10
+Q5. (b) Explain the process of resolving ethical dilemmas in Public Administration. (150 words) 10
+Q6. What do each of the following quotations mean to you in the presence context?
+(a) “The true rule, in determining to embrace, or reject any thing, is not whether it has any evil in it; but whether it has more evil than good. There are few things wholly evil or wholly good. Almost every thing especially of governmental policy, is an inseparable compound of the two; so that our best judgement of the preponderance between them is continually demanded.” – Abraham Lincoln. (150 words)
+(b) “Anger and intolerance are the enemies of correct understanding - Mahatma Gandhi. (150 words).
+(c) “Falsehood takes the place of truth when it results in unblemished common good.” – Tirukkural. (150 words).</t>
+  </si>
+  <si>
+    <t>Q.1 Answer the following questions in about 150 words each:
+(a) “Landscape is a function of structure, process and stage.” Critique the statement.
+(b) Explain the role of evaporation in the hydrologic cycle.
+(c) Describe the causes and consequences of sea level changes.
+(d) Distinguish between intrazonal and azonal soils. Describe in brief the characteristics and importance of azonal soils.
+(e) Explain the natural and anthropogenic causes and mitigation measures of frequent flooding in Mumbai.
+Q.2 (a) Evaluate how far Kober's geosynclinals theory explains the mountain building process.
+(b) Critically examine the basis and scheme of climatic classification proposed by G.T.Trewartha.
+(c) Discuss the objectives and principles of environmental education. Describe the basic concerns of formal and non-formal environmental education in India.
+Q.3 (a) Explain the origin, progress and retreat of the Indian monsoon and discuss its impact on the Indian economy.
+(b) “Geomorphological changes are largely responsible for environmental hazards in the Himalayan region.” Comment with relevant examples.
+(c) “Controlling population growth is the sustainable solution to environmental problems.” Express your views with suitable arguments.
+Q.4 (a) Describe the potential marine energy resources with reference to their benefits, harvestibility and environmental impacts.
+(b) Explain the ecosystem approach to environmental management and highlight its advantages and disadvantages.
+(c) Discuss the causes of degradation of tropical rainforests and suggest remedial measures for their prevention, conservation and development.
+Q.5 Answer the following questions in about 150 words each:
+(a) “Geography is a contested and multiparadigmic discipline with a strong eurocentricity that has only recently been challenged.” Comment.
+(b) Discuss the degree of importance of transportation costs as a factor of industrial location with respect to “footloose industries”.
+(c) Explain the concepts of “megalopolis” and “exopolis” with regard to the growth of cities indicating whether the two can and do overlap.
+(d) Write a note on “forward and backward linkages” in Perroux's thesis of economic growth and regional development.
+(e) Outline briefly the “age of mass consumption” as described by Rostow in his „multi-stage theory of growth.
+Q.6 (a) “Areal differentiation has provided the theoretical justification for studying „regions and regional geography. Comment.
+(b) Citing examples from Asia and Europe, comment upon the contexts within which pronatalist population policies are advanced what could be the implications of these policies on women's workforce participation.
+(c) Comment upon the contributions of D.M Smith in outlining „welfare as a key focus in the geographies of social well-being.
+Q.7 (a) “Famine is a social phenomena rooted in institutional and political economic arrangements, which determine access to food by different classes and strata.” Comment.
+(b) Provide a brief outline of ideas related to “sense of place” as propounded by Yi-Fu Tuan and Relph in humanistic geography that emerged in the 1970's.
+(c) Elaborate upon the influence of Marxist philosophy on geographical research outlining key theme addressed by Marxist geographers since the 1970's.
+Q.8 (a) “Welfare geography emphasizes spatial inequality and territorial justice.” Comment with reference to the main ideas and scope of the subfield.
+(b) Discuss critically the manner in which quantitative revolution provided the methodological foundation for models and modeling in geography.
+(c) Discuss in brief the main thesis in “Limits to Growth” (1972) and also provide a critique of the same.</t>
+  </si>
+  <si>
+    <t>Q.1 (a) On the outline map of India provided to you, mark the location of all of the following. Write in your QCA Booklet the significance of these locations, whether physical/commercial/economic/ecological/environmental/cultural, in not more than 30 words for each entry:
+1. Shyok River
+2. Mawlynnong
+3. Shravasti
+4. Kori Creek
+5. Amarkantak
+6. Ghatshila
+7. Tawang
+8. Neyyar
+9. Dandeli
+10. Mulshi Lake
+b) Explain the unusual intensity of dust storms and thunderstorms across India in the pre-monsoon period of year 2018.
+c) Why setting up of Water Management Boards is a controversial issue in India.
+d) Keeping the recent developments in view, how can the energy crisis of India be circumvented by harnessing non conconventional energy resources?
+Q.2 a) Distinguish the geographical aspects of North-Western lava plateau and Chotanagpur Plateau of Peninsular India.
+b) Explain the contemporary agricultural scenario in the context of rapid urbanizations in India.
+c) Assess the suitability of Special Economic Zones (SEZs) for the sustainable economic development in India.
+Q.3 a) Examine the ongoing process of agricultural diversification and its implications for food security in India.
+b) Account for the persisting negative trade balance of India.
+c) Critically assess the vanishing ethnic linguistic plurality of India.
+Q.4 a) Examine the driving forces of changing urban morphology of millionplus cities of India with suitable examples.
+b) Discuss the emerging geo-political scenario of Indian Ocean realm.
+c) Give a critical account of region specific constraints of sustainable tourisms in India.
+Q.5 Answer the following questions in about 150 words each:
+a) Discuss the socio-economic problems associates with the left behind families of international migrants from India.
+b) Explain the changing river courses and their impacts on the riparian population in India with suitable examples.
+c) Make a critical appraisal of the factors affecting river water quality in India.
+d) Examine the role of people’s participation in successful decentralized planning in India.
+e) Describe the socio-spatial consequences of the recent Nipah viral encephalitis in India.
+Q.6 a) Illustrate with suitable examples the endeavours undertaken in augmenting conservation of water and vegetation in India.
+b) Discuss the strategies of integrated development of island territories in India.
+c) Cross border terrorism has implications on border area development in India. Examine it with suitable examples.
+Q.7 a) Explain the pipeline network across India and its impact on regional development.
+b) Discuss the changing composition of international trade through major seaports of India.
+c) Peri-urbanization has created enormous environmental problems. Discuss their causes and consequences with reference to the National Capital Region (N.C.R) of India.
+Q.8 a) Describe the changing regional morphology of rural settlements in India.
+b) Startups may play important role in giving fillip to economic growth in India. Illustrate with examples.
+c) Is the land boundary of India with its neighbouring countries a cultural divide or divided culture? Explain with suitable examples.</t>
+  </si>
+  <si>
+    <t>Q-1.Wisdom finds truth.
+Q-2.Values are not what humanity is, but what humanity ought to be.
+Q-2.Best for an individual is not necessarily best for the society.
+Q-4.Courage to accept and dedication to improve are two keys to success.
+Q-1.South Asian Societies are woven not around the state, but around their plural cultures and plural identities.
+Q-2.Neglect of primary healthcare and education in India are reasons for its backwardness.
+Q-3.Biased media is a real threat to Indian Democracy
+Q-4.Rise of Artificial Intelligence: the threat of jobless future or better job opportunities through reskilling and upskilling.</t>
+  </si>
+  <si>
+    <t>Q1. Highlight the Central Asian and Greco-Bactrian elements in the Gandhara art. (Answer in 150 words) 10 Marks
+Q2. The 1857 Uprising was the culmination of the recurrent big and small local rebellions that had occurred in the preceding hundred years of British rule. Elucidate. (Answer in 150 words) 10 Marks
+Q3. Examine the linkages between the ninteenth century's 'Indian Renaissance' and the emergence of national identity. (Answer in 150 words) 10 Marks
+Q4. Assess the impact of global warming on the coral life system with examples. (Answer in 150 words) 10 Marks
+Q5. Discuss the causes of depletion of mangroves and explain their importance in maintaining coastal ecology. (Answer in 150 words) 10 Marks
+Q6. Can the strategy of regional resource-based manufacturing help in promoting employment in India? (Answer in 150 words) 10 Marks
+Q7. Discuss the factors for localisation of agro-based food processing industries of North-West India. (Answer in 150 words) 10 Marks
+Q8. What makes the Indian society unique in sustaining its culture? Discuss. (Answer in 150 words) 10 Marks
+Q9.  "Empowering women is the key to control population growth." Discuss. (Answer in 150 words) 10 Marks
+Q10. What are the challenges to our cultural practices in the name of secularism? (Answer in 150 words) 10 Marks
+Q11. Many voices had strengthened and enriched the nationalist movement during the Gandhian phase. Elaborate. (Answer in 250 words) 15 Marks
+Q12. Assess the role of British imperial power in complicating the process of transfer of power during the 1940s. (Answer in 250 words) 15 Marks
+Q13. Explain how the foundations of the modern world were laid by the American and French Revolutions. (Answer in 250 words) 15 Marks
+Q14. What is water stress? How and why does it differ regionally in India? (Answer in 250 words) 15 Marks
+Q15. How can the mountain ecosystem be restored from the negative impact of development initiatives and tourism? (Answer in 250 words) 15 Marks
+Q16. How is efficient and affordable urban mass transport key to the rapid economic development of India? (Answer in 250 words) 15 Marks
+Q17. How do ocean currents and water masses differ in their impacts on marine life and coastal environment? Give suitable examples. (Answer in 250 words) 15 Marks
+Q18. Do we have cultural pockets of small India all over the nation? Eleborate with examples. (Answer in 250 words) 15 Marks
+Q19. What are the continued challenges for women in India against time and space? (Answer in 250 words) 15 Marks
+Q20. Are we losing your local identity for the global identity? Discuss. (Answer in 250 words) 15 Marks</t>
+  </si>
+  <si>
+    <t>Q1. Do you think Constitution of India does not accept principle of strict separation of powers rather it is based on the principle of ‘checks and balance’? Explain. (10 Marks)
+Q2. “The Central Administrative Tribunal which was established for redressal of grievances and complaints by or against central government employees, nowadays is exercising its powers as an independent judicial authority.” Explain. (10 Marks)
+Q3. What are the methods used by the farmer’s organizations to influence the policy-makers in India and how effective are these methods? (10 Marks)
+Q4. From the resolution of contentious issues regarding distribution of legislative powers by the courts, ‘Principle of Federal Supremacy’ and ‘Harmonious Construction’ have emerged. Explain. (10 Marks)
+Q5. What can France learn from the Indian Constitution’s approach to secularism? (10 Marks)
+Q6. Despite Consistent experience of high growth, India still goes with the lowest indicators of human development. Examine the issues that make balanced and inclusive development elusive. (10 Marks)
+Q7. There is a growing divergence in the relationship between poverty and hunger in India. The shrinking of social expenditure by the government is forcing the poor to spend more on non-food essential items squeezing their food-budget – Elucidate. (10 marks)
+Q8. Implementation of Information and Communication technology (ICT) based projects/programmes usually suffers in terms of certain vital factors. Identify these factors and suggest measures for their effective implementation. (10 marks)
+Q9. ‘The time has come for India and Japan to build a strong contemporary relationship, one involving global and strategic partnership that will have a great significance for Asia and the world as a whole.’ Comment. (10 marks)
+Q10. ‘Too little cash, too much politics, leaves UNESCO fighting for life.’ Discuss the statement in the light of US’ withdrawal and its accusation of the cultural body as being ‘anti-Israel bias’. (10 marks)
+Q11. On what grounds a people’s representative can be disqualified under the representation of people act, 1951? Also mention the remedies available to such person against his disqualification. (15 marks)
+Q12. “Parliament’s power to amend the constitution is a limited power and it cannot be enlarged into absolute power”. In the light of this statement explain whether parliament under article 368 of the constitution can destroy the Basic structure of the constitution by expanding its amending power? (15 marks)
+Q13. “The reservation of seats for women in the institution of local self-government has had a limited impact on the patriarchal character of the Indian political process”. Comment. (15 marks)
+Q14. “The Attorney-General is the chief legal adviser and lawyer of the Government of India.” Discuss (15 Marks)
+Q15. Individual parliamentarian’s role as the national law maker is on a decline, which in turn, has adversely impacted the quality of debates and their outcome. Discuss. (15 marks)
+Q16. ‘In the context of neo-liberal paradigm of developmental planning, multi-level planning is expected to make operations cost-effective and remove many implementation blockages’- Discuss (15 marks)
+Q17. The need for cooperation among various service sectors has been an inherent component of development discourse. Partnership bridges the gap among the sectors. It also sets in motion a culture of ‘collaboration’ and ‘team spirit’. In the light of statements above examine India’s development process. (15 marks)
+Q18. Performance of welfare schemes that are implemented for vulnerable sections is not so effective due to absence of their awareness and active involvement at all stages of policy process. Discuss (15 marks)
+Q19. “The long sustained image of India as a leader of the oppressed and marginalised nations has disappeared on account of its new found role in the emerging global order.’ Elaborate (15 Marks)
+Q20. What introduces friction into the ties between India and United States is that Washington is still unable to find for India a position in its global strategy, which would satisfy India’s national self-esteem and ambitions’. Explain with suitable examples. (15 Marks)</t>
+  </si>
+  <si>
+    <t>Q1. Enumerate the indirect taxes which have been subsumed in the Goods and Services Tax (GST) in India. Also, comment on the revenue implications of the GST introduced in India since July 2017. (Answer in 150 words) 10 Marks
+Q2. Do you agree with the view that steady GDP growth and low inflation have left the Indian economy in good shape? Give reasons in support of your arguments. (Answer in 150 words) 10 Marks
+Q3. How far is Integrated Farming System (IFS) helpful in sustaining agricultural production? (Answer in 150 words) 10 Marks
+Q4. Elaborate the impact of National Watershed Project in increasing agricultural production from water-stressed areas. (Answer in 150 words) 10 Marks
+Q5. How was India benefitted from the contributions of Sir M.Visvesvaraya and Dr. M. S. Swaminathan in the fields of water engineering and agricultural science respectively? (Answer in 150 words) 10 Marks
+Q6. What is India’s plan to have its own space station and how will it benefit our space programme? (Answer in 150 words) 10 Marks
+Q7. Coastal sand mining, whether legal or illegal, poses one of the biggest threats to our environment. Analyse the impact of sand mining along the Indian coasts, citing specific examples. (Answer in 150 words) 10 Marks
+Q8. Vulnerability is an essential element for defining disaster impacts and its threat to people. How and in what ways can vulnerability to disasters be characterized? Discuss different types of vulnerability with reference to disasters. (Answer in 150 words) 10 Marks
+Q9. The banning of ‘Jamaat-e – islaami’ in Jammu and Kashmir brought into focus the role of over-ground workers (OGWs) in assisting terrorist organizations. Examine the role played by OGWs in assisting terrorist organizations in insurgency affected areas. Discuss measures to neutralize influence of OGWs. (Answer in 150 words) 10 Marks
+Q10. What is CyberDome Project? Explain how it can be useful in controlling internet crimes in India. (Answer in 150 words) 10 Marks
+Q11. It is argued that the strategy of inclusive growth is intended to meet the objectives of inclusiveness and sustainability together. Comment on this statement. (Answer in 250 words) 15 Marks
+Q12. The public expenditure management is a challenge to the government of India in the context of budget making during the post-liberalization period. Clarify it. (Answer in 250 words) 15 Marks
+Q13. What are the reformative steps taken by the government to make food grain distribution system more effective? (Answer in 250 words) 15 Marks
+Q14. Elaborate the policy taken by the government of India to meet the challenges of the food processing sector. (Answer in 250 words) 15 Marks
+Q15. How is the government of India protecting traditional knowledge of medicine from patenting by pharmaceutical companies? (Answer in 250 words) 15 Marks
+Q16. How can biotechnology improve the living standards of farmers? (Answer in 250 words)  15 Marks
+Q17. Define the concept of carrying capacity of an ecosystem as relevant to an environment. Explain how understanding this concept is vital while planning for sustainable development of a region. (Answer in 250 words) 15 Marks
+Q18. Disaster preparedness is the first step in any disaster management process. Explain how hazard zonation mapping will help in disaster mitigation in the case of landslides. (Answer in 250 words) 15 Marks
+Q19. Indian government has recently strengthened the anti-terrorism laws by amending the unlawful activities (Prevention) act (UAPA), 1967 and the NIA Act. Analyze the changes in the context of prevailing security environment while discussing the scope and reasons for opposing the UAPA by human rights organizations. (Answer in 250 words) 15 Marks
+Q20. Cross-border movement of insurgents is only one of the several security challenges facing the policing of the border in North-East India. Examine the various challenges currently emanating across the India-Myanmar border. Also discuss the steps to counter the challenges. (Answer in 250 words) 15 Marks</t>
+  </si>
+  <si>
+    <t>Q1.
+What are the basic principles of public life? Illustrate any three with suitable examples. (150 words) (10 marks)
+What do you understand by the term ‘public servant’? Reflect on the expected role of public servant.  (150 words) (10 marks)
+Q2.
+Effective utilization of public finds is crucial to meet development goals. Critically examine the reasons for under- utilization and mis- utilization of public funds and their implications. (150 words) (10 marks)
+“Non-performance of duty by a public servant is a form of corruption”. Do you agree with this view? Justify your answer (150 words) (10 marks)
+Q3.
+What is meant by the term ‘constitutional morality’? How does one uphold constitutional morality? (150 words) (10 marks)
+What is meant by ‘crisis of conscience’? How does it manifest in the public domain? (150 words) (10 marks)
+Q4.
+Explain the basic principles of citizens’ charter movement and bring out its importance. (150 words) (10 marks)
+There is a view that the official secrets act is an obstacle to the implementation of Rights to Information act. Do you agree with the view? Discuss (150 words) (10 marks)
+Q5.
+What do you understand by probity in governance? Based on your understanding of the term, suggest measures for ensuring probity in government. (150 words) (10 marks)
+“Emotional Intelligence is the ability to make your emotions work for you instead of against you.” Do you agree with this view? Discuss. (150 words) (10 marks)
+Q6. What do each of the following quotations mean to you?
+“An unexamined life is not worth living.” – Socrates (150 words) (10 marks)
+“A man is but the product of his thoughts. What he thinks, he becomes.” – M.K.Gandhi (150 words) (10 marks)
+“Where there is righteousness in the heart, there is beauty in the character. When there is beauty in the character, there is harmony in the home. When there is harmony in the home, there is order in the nation. When there is order in the nation, there is peace in the world.” – A.P.J. Abdul Kalam (150 words) (10 marks)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q.1 Answer the following questions in about 150 words each:
+(a) Describe phreatic eruptions and their consequences. 
+(b) Explain the techniques to calculate potential evapotranspiration suggested by Thornthwaite. 
+(c) How are sandspits and tombolos formed? 
+(d) Amensalism is a biotic factor that determines the geographic limits of species. Explain. 
+(e) How do mountaineers constitute a threat to Mount Everest? 
+Q.2 (a) Why is it necessary to conserve genetic diversity of species? Do protected areas serve any useful purpose in this context? 
+(b) Compare and contrast different types of plate boundaries. 
+(c) Explain the nature of urban climates and their impact on global environmental change. 
+Q.3 (a) Discuss in detail the tri-cellular model of atmospheric circulation. 
+(b) How are soil acidity and alkalinity related to soil fertility? 
+(c) “The web of life is seamless and the consequences of disruption to one part of the ecosystem ripple throughout the whole." Elaborate. 
+Q.4 (a) Discuss the methods of measuring the intensity and magnitude of earthquakes. How are seismic zones demarcated? 
+(b) The impact of floods on life and property can be most effectively reduced by hazard mapping. Comment. 
+(c) How are ocean waves formed? Distinguish between a wave of oscillation and a wave of translation.
+Q.5 Answer the following questions in about 150 words each:
+(a) "A language originates at a particular place and diffuses to other locations through the migration of its speakers." Examine this statement in the context of language hot spots and endangered language hot spots. 
+(b) Define stunting and wasting. Why are these more prevalent among children in developing countries?
+(c) Explain the relationship between net reproductive rate (NRR) and true replacement level of population. 
+(d) What are natural regions? How are they different from planning regions?
+(e) Discuss the genetic classification of boundaries suggested by Hartshorne. 
+Q.6 (a). HDI has brought about a paradigm shift in the way people think about the development process. Critically examine the inherent limitations of HDI. 20 
+(b) "A large-scale global shift in manufacturing is the outcome of deindustrialization in the developed world matched by industrialization in the developing world." Analyze this statement.15 
+(c) What do you mean by 'climate migrants'? Suggest appropriate policies and programmes for their resettlement. 15 
+Q.7 (a) What changes in the current planning, management and governance of human settlements are needed to face the changing environment including climate change and disaster vulnerabilities in cities? 20 
+(b) Globalization can often subsume folk culture. What are its positive and negative effects? 15 
+(c) "Growth is not uniform in different places." Critically examine this statement in the context of the growth pole theory. 
+Q.8 (a) Distinguish between 'isodapanes' and isotims'. Critically examine the least cost theory of industrial location given by Alfred Weber. 
+(b) Assess the challenges for countries with the largest shares of aged populations. 15 
+(c) Examine the relevance of the ‘rimland theory' in the contemporary world. </t>
+  </si>
+  <si>
+    <t>Q.1 (a) On the outline map of India provided to you, mark the location of all of the following. Write in your QCA Booklet the significance of these locations, whether physical/commercial/economic/ecological/environmental/cultural, in not more than 30 words for each entry:  2x10-20 
+(i) Lothal 
+(ii) River Beas 
+(iii) Chikhaldara 
+(iv) Narora 
+(v) Lengpui 
+(vi) Kuldiha Wildlife Sanctuary 
+(vii) Thenmala 
+(viii) Anamudi 
+(ix) Barren Island 
+(x) Durgaduani creek
+1.(b) Examine the major causes of ground water depletion in India. 
+1.(c) Why is the Indian Monsoon erratic in nature ? Explain. 
+1.(d) Explain the significance of dry farming in drought prone areas of India. 
+2.(a) Correlate the agro-climatic zones with agro-ecological regions of India. 20 
+2.(b) Critically analyse the role of multinational corporations in India's economic development with suitable examples. 15 
+2.(c) Discuss how watershed management has become a tool in eradication of rural poverty in India. 15 
+3.(a) Discuss the use of chemical fertilizers, pesticides and insecticides in agriculture and its impact on human health. 20 
+3.(b) Examine ongoing space programmes of India and their implications for national security in future. 15 
+3.(c) Discuss the rainfall pattern and correlate it with spatial distribution of natural vegetation in India. 15 
+4.(a) Discuss the political aspects of Himalaya. Explain how it has affected geo-strategy, geo-politics and regional consciousness of Indian federalism. 20 
+4.(b) Examine the development of information technology in India and its influence on work culture and society. 15
+4.(c) Explain the present status of age-structure and availability of workforce in India. 15 
+Q.5 Answer the following questions in about 150 words each:
+5.(a) . Present the salient features of West flowing rivers of India. 10 
+5.(b) Discuss the problems of wildlife conservation and management in India. 10 
+5.(c) Correlate the price of land, vertical growth of cities and the growth of slums in large cities of India. 10 
+5.(d) Assess the importance of foot-loose industries in the development of backward regions in India. 10 
+5.(e) Examine the problems of Glacial Lake Outburst Flood (GLOF) in India. 10 
+6.(a) "Intrabasins linkages of rivers are more feasible economically, socially and ecologically". Discuss with suitable examples from India. 20 
+6.(b) Provide a reasoned account on emerging conurbations in India and explain with suitable examples the problems associated with it. 15 
+6.(c) Explain the relevance of green tourism for sustainable development of mountain environment in India. 15 
+7.(a) Analyse the role of interstate migration in regional disparity in India. 20 
+7.(b) Give a reasoned account of high level of pollution in North Indian cities as compared to South Indian cities. 15 
+7.(c) Analyse the incentive oriented programmes for removing regional imbalances in socio-economic development of India.
+8.(a) With special reference to India examine the changes in the nature and patterns of international trade. Mention the major influencing factors. 20 
+8.(b) Describe the altitudinal and spatial geo-environmental hazards in the Himalayas. 15 
+8.(c) "India is emerging as global power in relation to Indian ocean realm." Elaborate. 15</t>
   </si>
 </sst>
 </file>
@@ -1641,7 +1685,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1686,13 +1730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1756,7 +1794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1784,9 +1822,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1796,14 +1831,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1813,14 +1844,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1928,7 +1964,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{63253F8D-73FD-4363-8179-10D8A673D8B2}" name="Table11110" displayName="Table11110" ref="A1:F27" totalsRowShown="0">
   <autoFilter ref="A1:F27" xr:uid="{EC922FB9-6E04-4D95-9C6B-E911C0430319}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B647F790-838F-4D0B-8C44-2B48FBA97A1A}" name="17-Mar"/>
+    <tableColumn id="1" xr3:uid="{B647F790-838F-4D0B-8C44-2B48FBA97A1A}" name="Home"/>
     <tableColumn id="2" xr3:uid="{304D14A7-A07B-4C15-AAD7-E12B4041C8E6}" name="Topic" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{B72399E5-DE01-483E-A0A8-D8C6896AB732}" name="Links" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{7971D3C2-41C2-43FF-B1D2-094251D1D3BD}" name="Revision 1 date"/>
@@ -1940,8 +1976,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{40036639-2637-4C6D-B061-7B5EEAA93B18}" name="Table114" displayName="Table114" ref="A1:F453" totalsRowShown="0">
-  <autoFilter ref="A1:F453" xr:uid="{5DE69645-29C0-42D7-9D34-50EA8BEE42CE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{40036639-2637-4C6D-B061-7B5EEAA93B18}" name="Table114" displayName="Table114" ref="A1:F454" totalsRowShown="0">
+  <autoFilter ref="A1:F454" xr:uid="{5DE69645-29C0-42D7-9D34-50EA8BEE42CE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4F61A443-28B4-4295-9B35-62126E644817}" name="Home"/>
     <tableColumn id="2" xr3:uid="{BB88B54B-20C2-488A-8996-DB489BC908F5}" name="Topic" dataDxfId="1"/>
@@ -2335,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA7EB74-F9F5-4EEB-B0CB-747CDB8CA83C}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2347,199 +2383,196 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="21"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="27" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="B7" s="32" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="30" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B8" s="32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B9" s="32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B10" s="32" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B11" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B12" s="31" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B13" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="41" t="s">
+      <c r="B14" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="B15" s="31" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="B16" s="34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="B17" s="34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="39" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="39" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B18" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="32" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2590,6 +2623,152 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{D353D55F-6669-4392-A8B2-F08165D05C29}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499CC03-FF75-4847-A98B-83D6120028A7}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -2603,7 +2782,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2668,7 +2847,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4F1B6-2FFD-458F-8F49-E2DCCCF2181F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2750,7 +2929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2A9914-D7F7-4401-A210-4BA0D9B13688}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2801,7 +2980,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E23A5E-4639-4857-AB47-A878961FD1B8}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2834,7 +3013,7 @@
         <v>43874</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>350</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2842,13 +3021,13 @@
         <v>43883</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>364</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>365</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -2868,12 +3047,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B093A3-08AD-4C6E-A23B-42579CAFD690}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2922,7 +3101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8307D7-CFCD-4379-9421-921A35A6E178}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2960,7 +3139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D2B76-457A-4626-B3EB-FE38F736D528}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -3019,13 +3198,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3036,7 +3215,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3054,638 +3233,243 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43769</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43771</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43774</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43775</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43781</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43783</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43784</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43787</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43789</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>121</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43791</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43795</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43797</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43803</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43805</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>43807</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>43808</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>43810</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>43823</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>43824</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>43825</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>43826</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>43829</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>43831</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>43832</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>43834</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>213</v>
-      </c>
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>43836</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>43838</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>221</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>43839</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>228</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>43843</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>240</v>
-      </c>
+      <c r="A31" s="1"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>43851</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>43855</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>43856</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>272</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>43859</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>281</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>43863</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>297</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>43864</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>301</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>43865</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>306</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>43865</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>307</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>43865</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>309</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>43869</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>335</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>43869</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>338</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>43870</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>339</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>43871</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>342</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>43874</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>349</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>43876</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>353</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>355</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C51" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C53" s="4" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C54" s="4" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C55" s="4" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C56" s="4" t="s">
-        <v>507</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{320BE95B-808B-4075-8A26-304880FA39FF}"/>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3852C280-F12C-4195-9930-8D54C2677C20}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{74AC1CFC-34E7-447A-9B2C-EB505DAFCE13}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{22AB1EC6-A9B9-46C4-951E-15AB82A0945A}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{6556EC31-8C7E-4657-8411-2F8AED3CFBF3}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{3DA37AEE-036F-4B93-995E-6FEA07066A7A}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{C9B29A0B-9AE9-42AC-9803-647A5A046CF6}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{B72E9A71-7280-4DC7-A3E4-7035419ABF21}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{3077E262-B944-4CC2-8380-FED6825FA11A}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{F24A8E5C-2C83-4AB8-B24B-A7C647D6DC59}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{1F949F4F-B8BF-4603-9992-AA4E325BBD0E}"/>
-    <hyperlink ref="C13" r:id="rId11" xr:uid="{3CF9482F-AC26-4DB2-8E04-D74739F10383}"/>
-    <hyperlink ref="C14" r:id="rId12" xr:uid="{AC6FF736-0B65-452D-B273-F934BDDC34FC}"/>
-    <hyperlink ref="C15" r:id="rId13" xr:uid="{C2506CA7-D54E-444B-978B-CFE82FF81089}"/>
-    <hyperlink ref="C16" r:id="rId14" xr:uid="{D3DF508B-1D07-4D2A-9186-97C4242FC8B6}"/>
-    <hyperlink ref="C17" r:id="rId15" xr:uid="{50909DA9-91A1-4191-8CEF-0F52C1DE4133}"/>
-    <hyperlink ref="C18" r:id="rId16" xr:uid="{ADF18F98-CCA1-4798-A26F-A40B9978AAA0}"/>
-    <hyperlink ref="C19" r:id="rId17" xr:uid="{584C44FA-CA30-4F16-8F3A-4AA59BFB34BB}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{C60BAE92-711D-40C8-83A3-04C25670ABC7}"/>
-    <hyperlink ref="C21" r:id="rId19" xr:uid="{E9A848AA-D833-4AAA-9EAC-6A78995E00B0}"/>
-    <hyperlink ref="C22" r:id="rId20" xr:uid="{57E6757F-1920-4330-AEE0-768DD7CE1C05}"/>
-    <hyperlink ref="C23" r:id="rId21" xr:uid="{0D5E52BB-A60A-406A-8651-8CA055A5C833}"/>
-    <hyperlink ref="C24" r:id="rId22" xr:uid="{3B8AED17-FC6A-44F5-A3FD-DDA3D73B5AEF}"/>
-    <hyperlink ref="C25" r:id="rId23" xr:uid="{F964E26A-33C5-4703-B7DE-A95AF0D4B632}"/>
-    <hyperlink ref="C26" r:id="rId24" xr:uid="{4DD8FE52-9DC4-437E-9ABE-82BF0A3732B3}"/>
-    <hyperlink ref="C27" r:id="rId25" xr:uid="{D800DB48-D868-4FCC-93F6-83659D81444F}"/>
-    <hyperlink ref="C28" r:id="rId26" xr:uid="{BA8CFB59-AB0B-43BF-AD9F-AB0BC8505E25}"/>
-    <hyperlink ref="C29" r:id="rId27" xr:uid="{809873E1-B409-4A43-9D84-A8948A940290}"/>
-    <hyperlink ref="C30" r:id="rId28" xr:uid="{1AA9426E-81F5-43E1-B21F-4C67BAF4AE02}"/>
-    <hyperlink ref="C31" r:id="rId29" xr:uid="{1ECAADC4-F528-49C9-9288-E5F60981C400}"/>
-    <hyperlink ref="C32" r:id="rId30" xr:uid="{FAEC95BC-7B5E-4F54-B2FD-01C4B1440CE2}"/>
-    <hyperlink ref="C33" r:id="rId31" xr:uid="{6FDB7717-F42A-430E-94E8-EC39047C4357}"/>
-    <hyperlink ref="C34" r:id="rId32" xr:uid="{53409932-E321-484E-99D0-4C36CBF71481}"/>
-    <hyperlink ref="C35" r:id="rId33" xr:uid="{0A39EEF4-CE15-472C-8050-99F200DAFE3F}"/>
-    <hyperlink ref="C36" r:id="rId34" xr:uid="{DD698178-BF55-400F-9A30-E91E9F11158C}"/>
-    <hyperlink ref="C37" r:id="rId35" xr:uid="{47BC699A-EDFB-4B9F-AE01-29CABACD36DC}"/>
-    <hyperlink ref="C38" r:id="rId36" xr:uid="{D63DE6C1-BEB3-439E-BCFA-2ED0548B6299}"/>
-    <hyperlink ref="C39" r:id="rId37" xr:uid="{0127F3B8-112A-4E07-B0CB-36BCF95548FD}"/>
-    <hyperlink ref="C40" r:id="rId38" xr:uid="{59ECF87A-1BB4-4D9E-955D-5AB130A3D0E3}"/>
-    <hyperlink ref="C41" r:id="rId39" xr:uid="{D3211083-7424-4FBC-B515-E831B860B338}"/>
-    <hyperlink ref="C42" r:id="rId40" xr:uid="{A1FCA476-ACF8-4555-81BA-7CD6B0D8CBB5}"/>
-    <hyperlink ref="C43" r:id="rId41" xr:uid="{8B53A600-5ABA-4F3D-ACD6-2E78A48F79F6}"/>
-    <hyperlink ref="C44" r:id="rId42" xr:uid="{3CDC8DD4-0954-4FB1-A90C-ECAD7DF00C4E}"/>
-    <hyperlink ref="C45" r:id="rId43" xr:uid="{DE67ABB4-BA8C-4265-88FE-A2C2C192932A}"/>
-    <hyperlink ref="C46" r:id="rId44" xr:uid="{0CAB1158-09A3-4170-AA01-7258B38AFCFC}"/>
-    <hyperlink ref="C47" r:id="rId45" xr:uid="{5338C338-3FDA-4127-A0E2-38561307CAFF}"/>
-    <hyperlink ref="C48" r:id="rId46" xr:uid="{F1B8B2B3-42C6-44D5-9901-24B2DAC08144}"/>
-    <hyperlink ref="C51" r:id="rId47" xr:uid="{4C7823A2-D808-4F42-AF59-200C93C89CC3}"/>
-    <hyperlink ref="C52" r:id="rId48" xr:uid="{2228F4B5-3DCB-4EAB-A1D9-F2106391E0B9}"/>
-    <hyperlink ref="C53" r:id="rId49" display="https://www.youtube.com/watch?v=AeOVzUtyHiM&amp;list=PL6SvdYyb40V25wCpJ1I_Y_lzHuSdgvPMq&amp;index=4" xr:uid="{FB6F8E90-BC51-48AC-B3C6-7750BDC1AB9A}"/>
-    <hyperlink ref="C54" r:id="rId50" xr:uid="{7A2201EC-5847-4D00-A1FB-A8A3913554C5}"/>
-    <hyperlink ref="C55" r:id="rId51" xr:uid="{2721675D-0739-493E-AF38-19A6D5349829}"/>
-    <hyperlink ref="C56" r:id="rId52" xr:uid="{6E63FF06-0702-4B3F-BCDA-B5E7F54960EE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId53"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83403EBF-35A0-46D6-914B-8481A514EC72}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="159" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="A1" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3693,28 +3477,218 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2F57E7-E608-4E3A-A48D-AEA7D3A976EE}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.33203125" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC83EB28-B904-4728-8EE6-C29E47C604CC}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="70.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>398</v>
+      <c r="A1" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -3728,235 +3702,327 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43892</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>374</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="C2" s="28"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43895</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>377</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="C3" s="28"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>383</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>390</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="C5" s="28"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>392</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="C6" s="28"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="C7" s="35" t="s">
-        <v>395</v>
-      </c>
+      <c r="C7" s="28"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43909</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>396</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="C9" s="35" t="s">
-        <v>402</v>
-      </c>
+      <c r="C9" s="28"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="C10" s="35" t="s">
-        <v>404</v>
-      </c>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>413</v>
-      </c>
+      <c r="C11" s="28"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="C12" s="35" t="s">
-        <v>416</v>
-      </c>
+      <c r="C12" s="28"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>418</v>
-      </c>
+      <c r="C13" s="28"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>422</v>
-      </c>
+      <c r="C14" s="28"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C15" s="35" t="s">
-        <v>422</v>
-      </c>
+      <c r="C15" s="28"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="35" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C20" s="35" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="35" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="35" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="35" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="35" t="s">
-        <v>458</v>
-      </c>
+      <c r="C16" s="28"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="28"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="28"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="28"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="28"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="28"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3FFDB037-2F63-413A-8EA4-DCFFE9AA928F}"/>
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{EBB525BC-003F-4B28-AFF8-784A3EAABB43}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{63223F45-EBD4-425F-B535-6B98E86805BB}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{47D40A23-E66D-4222-8F90-26DA13BA60C3}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{4A3EB316-9B66-4637-A98A-87C8FB8F6B15}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{E05DADBC-784A-4524-8D57-1564CA148F95}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{350182BA-BE96-4F11-9616-3C36234C8D9C}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{4186DB41-0EB3-4EAD-A5BC-E9650F95083B}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{216F4013-55CF-43E7-8169-AABC054CA591}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{0A5C8E90-BF68-4348-9333-9F0C3DCF64D4}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{33AF84BC-EF65-447B-8D24-F805C89A4084}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{690E14E0-1EBF-4511-B936-D9A2BD33F100}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{63CE9364-285B-42D5-BA09-6026E1B6FDA7}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{ED109CF1-20C9-4C99-98FD-26714BFE087E}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{6FE07AA5-541F-4222-AD01-40B48A172CBF}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{27ADF0ED-F934-4F0E-914B-EA93B8470906}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{1EE97641-D41A-4074-A563-745A00583E54}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{8581806B-1971-4FE0-AE71-13969510B031}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{F7E0BA87-D124-40A8-B7DC-BB400B433766}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{8288F1AA-B2F7-4316-BA2B-6919C088C10D}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{50092904-6AF6-489A-BACE-93B3D47BDE5C}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{7AC9E74E-EAB9-4CDD-B46B-DBC730EF3EC2}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{53B8593D-624B-4CF9-9BC7-50AEAB0C1ADD}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{5CA8C7BD-B013-4D90-BF16-696047FCF621}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{113B03B5-89F7-429B-B452-B4688CEE5E83}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{AEEE3E86-1D96-455B-A1E2-7BB05C41BE8D}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{5F87F101-8026-4619-BD83-6C925792C6D5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9311E76-2DC7-40B3-986C-2633EA95A7E8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B27BEC-CCAE-4770-A888-58036A4D3E39}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="68.5546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="11"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{A06AE9D2-9989-46EC-AF3B-1BA012CE96A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6019475-EBF6-4229-92D0-55A2714CB4B1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4259E504-D197-4591-BEBF-8FC89FF6F84A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA582211-4BB8-4F1C-B635-52AB5DC2DE12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38EDEC-6912-45F4-9FBB-08C9E71DEFBF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374539E4-7CF2-4F3F-9787-D7863CD828AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D44057-A20E-416F-ADAE-EB28CDDF41C6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD61A37-C592-4092-AEC0-6E06B4A8F062}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -3970,7 +4036,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -3993,16 +4059,16 @@
         <v>43874</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>347</v>
+        <v>159</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>348</v>
+        <v>160</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
       <c r="H2" s="4" t="s">
-        <v>366</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -4010,10 +4076,10 @@
         <v>43883</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>368</v>
+        <v>167</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>367</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -4051,344 +4117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9311E76-2DC7-40B3-986C-2633EA95A7E8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B27BEC-CCAE-4770-A888-58036A4D3E39}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
-  <dimension ref="A1:E25"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="68.5546875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>43769</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43773</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43779</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43782</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43797</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43801</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43802</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43804</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43808</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43809</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43823</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43825</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43829</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43834</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>43842</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>43851</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>43852</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>43860</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>43864</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>43866</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>43871</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>43872</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{A06AE9D2-9989-46EC-AF3B-1BA012CE96A1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6019475-EBF6-4229-92D0-55A2714CB4B1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4259E504-D197-4591-BEBF-8FC89FF6F84A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA582211-4BB8-4F1C-B635-52AB5DC2DE12}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38EDEC-6912-45F4-9FBB-08C9E71DEFBF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374539E4-7CF2-4F3F-9787-D7863CD828AC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D44057-A20E-416F-ADAE-EB28CDDF41C6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79CAE7F-8B70-40F9-9409-D3DD3B1AB4C1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4402,275 +4131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC45D955-E377-4351-AB0C-67F1F7A77876}">
-  <dimension ref="A1:N17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>43824</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43834</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44137</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44138</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43843</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44139</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="M5" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="N5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43843</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44140</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="M6" s="25" t="s">
-        <v>316</v>
-      </c>
-      <c r="N6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43851</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44141</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>317</v>
-      </c>
-      <c r="N7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43866</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44105</v>
-      </c>
-      <c r="D8" t="s">
-        <v>327</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="N8" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43883</v>
-      </c>
-      <c r="B9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="M9" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="N9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C10" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="N10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H11" s="31" t="s">
-        <v>407</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="N11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C12" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="M12" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="N12" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
-        <v>323</v>
-      </c>
-      <c r="N13" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="M14" t="s">
-        <v>324</v>
-      </c>
-      <c r="N14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>43971</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="M15" t="s">
-        <v>325</v>
-      </c>
-      <c r="N15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>44001</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="M16" t="s">
-        <v>326</v>
-      </c>
-      <c r="N16" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="4" t="s">
-        <v>500</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{8E302C93-9BBC-4A32-964B-696B5E43AB8A}"/>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3620654A-B586-4474-A049-2597A7E29A90}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{5330ED9F-8803-4D50-8D8D-7B160A9D71F8}"/>
-    <hyperlink ref="G1" r:id="rId3" xr:uid="{6AA639E5-23CD-4F20-B910-09B153949EEB}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{FB753580-EDAE-4495-8C63-9C0BDED2D401}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{8F3C5418-4924-4772-8C65-1CECD5C62C08}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{6F2FB107-B50E-470B-8993-BFEFE59B426A}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{7383BCC2-45EF-4002-B957-E5472FAB965F}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{9FC586FA-A7E9-455C-9762-BF492608A0CD}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{AAB842B0-4896-4034-92FC-7433659A2AF5}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{8060AF32-D7D1-4FE5-83AB-1DF8FF1D1794}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{659CD1C4-561C-48FB-A7DA-2F51D1594709}"/>
-    <hyperlink ref="C15" r:id="rId12" xr:uid="{A70D9188-CE14-4165-AFC3-BCBC64BC0D32}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{8D8B2B0D-D0FB-49A1-B036-4B7D72826B36}"/>
-    <hyperlink ref="C17" r:id="rId14" xr:uid="{CBD739F3-9ECF-4968-BE2D-D172919D6C27}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId15"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E5530C-6B8D-4CA2-8B89-67D4E09E2843}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4684,7 +4145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432A11B7-8944-4C91-BE01-35A0863531CC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4698,7 +4159,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAED0BD-0D0C-444E-B89A-A383DC371162}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4712,13 +4173,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6473B6-9076-46E1-98BE-6DA60CB65AF7}">
-  <dimension ref="A1:F453"/>
+  <dimension ref="A1:F454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4729,7 +4190,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4752,10 +4213,10 @@
         <v>43753</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
         <v>43779</v>
@@ -4766,10 +4227,10 @@
         <v>43771</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D3" s="1">
         <v>43779</v>
@@ -4780,10 +4241,10 @@
         <v>43773</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4791,10 +4252,10 @@
         <v>43778</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4802,10 +4263,10 @@
         <v>43782</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4813,10 +4274,10 @@
         <v>43790</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4824,10 +4285,10 @@
         <v>43795</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4835,10 +4296,10 @@
         <v>43796</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>133</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4846,10 +4307,10 @@
         <v>43797</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4857,10 +4318,10 @@
         <v>43800</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>139</v>
+        <v>83</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -4868,10 +4329,10 @@
         <v>43801</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4879,10 +4340,10 @@
         <v>43804</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>155</v>
+        <v>88</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>154</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -4890,10 +4351,10 @@
         <v>43807</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -4901,10 +4362,10 @@
         <v>43808</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>168</v>
+        <v>92</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>167</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -4912,10 +4373,10 @@
         <v>43809</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -4923,10 +4384,10 @@
         <v>43824</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>179</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -4934,10 +4395,10 @@
         <v>43825</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -4945,10 +4406,10 @@
         <v>43826</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>195</v>
+        <v>100</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>194</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -4956,10 +4417,10 @@
         <v>43829</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>199</v>
+        <v>102</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>198</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -4967,10 +4428,10 @@
         <v>43830</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>204</v>
+        <v>104</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4978,10 +4439,10 @@
         <v>43836</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>220</v>
+        <v>105</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>223</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -4989,10 +4450,10 @@
         <v>43840</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>231</v>
+        <v>108</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>230</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -5000,10 +4461,10 @@
         <v>43843</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -5011,10 +4472,10 @@
         <v>43844</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>238</v>
+        <v>111</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>239</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -5022,10 +4483,10 @@
         <v>43846</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>244</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -5033,10 +4494,10 @@
         <v>43849</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>246</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -5044,10 +4505,10 @@
         <v>43849</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>249</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -5055,10 +4516,10 @@
         <v>43850</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>252</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -5066,10 +4527,10 @@
         <v>43851</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>254</v>
+        <v>122</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>253</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -5077,10 +4538,10 @@
         <v>43852</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>258</v>
+        <v>124</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>257</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -5088,10 +4549,10 @@
         <v>43852</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>260</v>
+        <v>126</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>259</v>
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -5099,10 +4560,10 @@
         <v>43853</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>264</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -5110,10 +4571,10 @@
         <v>43854</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>265</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -5121,10 +4582,10 @@
         <v>43856</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>271</v>
+        <v>132</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>270</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -5132,10 +4593,10 @@
         <v>43856</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>275</v>
+        <v>134</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>274</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -5143,10 +4604,10 @@
         <v>43857</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>277</v>
+        <v>136</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>276</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -5155,7 +4616,7 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="4" t="s">
-        <v>278</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -5163,10 +4624,10 @@
         <v>43859</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>280</v>
+        <v>139</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>279</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -5174,10 +4635,10 @@
         <v>43861</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>286</v>
+        <v>141</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>285</v>
+        <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -5185,10 +4646,10 @@
         <v>43862</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>288</v>
+        <v>143</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>287</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -5196,10 +4657,10 @@
         <v>43862</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>290</v>
+        <v>145</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -5207,10 +4668,10 @@
         <v>43862</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>293</v>
+        <v>148</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>292</v>
+        <v>147</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -5218,10 +4679,10 @@
         <v>43862</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>294</v>
+        <v>149</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -5229,10 +4690,10 @@
         <v>43862</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>296</v>
+        <v>151</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>295</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -5240,10 +4701,10 @@
         <v>43864</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>300</v>
+        <v>153</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>299</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -5251,10 +4712,10 @@
         <v>43866</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>311</v>
+        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -5262,178 +4723,129 @@
         <v>43867</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>329</v>
+        <v>157</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>328</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>43869</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>331</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>43869</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>334</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="4"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>43978</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>448</v>
-      </c>
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="4"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
-      <c r="C53" s="4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B54" s="2">
-        <v>0</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>476</v>
-      </c>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
-      <c r="C55" s="4" t="s">
-        <v>476</v>
-      </c>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
-      <c r="C56" s="4" t="s">
-        <v>479</v>
-      </c>
+      <c r="C56" s="4"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
-      <c r="C57" s="4" t="s">
-        <v>482</v>
-      </c>
+      <c r="C57" s="4"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
-      <c r="C58" s="4" t="s">
-        <v>484</v>
-      </c>
+      <c r="C58" s="4"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
-      <c r="C59" s="4" t="s">
-        <v>485</v>
-      </c>
+      <c r="C59" s="4"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>485</v>
-      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="4"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>491</v>
-      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" s="4"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>494</v>
-      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" s="4"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>498</v>
-      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="4"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.3">
@@ -6554,6 +5966,9 @@
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B453" s="2"/>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B454" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6605,35 +6020,22 @@
     <hyperlink ref="C46" r:id="rId45" xr:uid="{7AD5F9CB-3E8E-43AD-952D-55B2ED6FDBDC}"/>
     <hyperlink ref="C47" r:id="rId46" xr:uid="{17714D57-176B-454F-B583-F7EE76673C0A}"/>
     <hyperlink ref="C48" r:id="rId47" xr:uid="{9371E68A-65A3-4247-A17B-B4DDA30FF55A}"/>
-    <hyperlink ref="C49" r:id="rId48" xr:uid="{574FA2F5-EE7D-4F86-ACD8-470895F456C4}"/>
-    <hyperlink ref="C50" r:id="rId49" xr:uid="{473CC9C8-44D3-4E06-94CF-A8DEBDA5E8BB}"/>
-    <hyperlink ref="C52" r:id="rId50" xr:uid="{6D67AC11-2F30-468A-BA22-39147C32E7A5}"/>
-    <hyperlink ref="C53" r:id="rId51" xr:uid="{CFF5A18C-A4D1-4D17-BC47-4FFE3B789C01}"/>
-    <hyperlink ref="C54" r:id="rId52" xr:uid="{2038F2E9-809A-4049-939A-B1985928D935}"/>
-    <hyperlink ref="C55" r:id="rId53" xr:uid="{21C6E6D8-C6AA-46CD-99B6-DB56A4318EC9}"/>
-    <hyperlink ref="C56" r:id="rId54" xr:uid="{A7F12CA0-7E83-4224-B77B-94D34EB2E9D5}"/>
-    <hyperlink ref="C57" r:id="rId55" xr:uid="{A6472239-2693-46A9-AC60-0C8BF4508F37}"/>
-    <hyperlink ref="C58" r:id="rId56" xr:uid="{AB0831AB-55FF-4CEA-BC41-777BF847734C}"/>
-    <hyperlink ref="C59" r:id="rId57" xr:uid="{623F7E78-2D58-457D-BB0D-A3D07469FA42}"/>
-    <hyperlink ref="C60" r:id="rId58" xr:uid="{49BF1218-6412-47D9-A6E1-0C39B3C8E3DD}"/>
-    <hyperlink ref="C61" r:id="rId59" xr:uid="{60B78A43-1AED-47B2-826D-604CFE808186}"/>
-    <hyperlink ref="C62" r:id="rId60" xr:uid="{264B09DA-3B74-47AF-BE8C-9CD9C6BFBFA3}"/>
-    <hyperlink ref="C63" r:id="rId61" xr:uid="{14BD71B0-3CC6-405E-A9AE-2C2A83FA5F71}"/>
-    <hyperlink ref="C64" r:id="rId62" xr:uid="{3D309D36-C67C-4EF5-83A6-3694E5AC1CDE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId63"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId48"/>
   <tableParts count="1">
-    <tablePart r:id="rId64"/>
+    <tablePart r:id="rId49"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00034C39-9A95-4F08-996E-38B60FA09112}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6642,7 +6044,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -6657,112 +6059,48 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>43771</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>58</v>
-      </c>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43788</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43802</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43824</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43830</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43834</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43839</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43852</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>262</v>
-      </c>
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43860</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>284</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43864</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43866</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43871</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>344</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43871</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>345</v>
-      </c>
+      <c r="A14" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6772,7 +6110,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B97DDFA-1565-4470-BB29-D5465D288895}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6784,7 +6122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA657AA-1F22-477B-B7BC-F11318BA36EB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6796,7 +6134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BBE539-7C73-4D09-8E9A-C7D2A918577D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6810,7 +6148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC9D91-1D03-4166-9423-6B7417BBFD57}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6824,7 +6162,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC45D955-E377-4351-AB0C-67F1F7A77876}">
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="C9" s="4"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="4"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H11" s="24"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C14" s="4"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{8E302C93-9BBC-4A32-964B-696B5E43AB8A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32C370E-E6C2-42BF-B2D7-1840CA486DCC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6838,13 +6326,27 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF6E018-BD46-45F6-85A3-605BEB5FED4F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64904A22-8EE5-497D-9E05-7789FA782D5C}">
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6855,7 +6357,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -6878,10 +6380,10 @@
         <v>43769</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -6892,10 +6394,10 @@
         <v>43770</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -6906,7 +6408,7 @@
         <v>43771</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="12"/>
@@ -6918,7 +6420,7 @@
         <v>43771</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="12"/>
@@ -6930,7 +6432,7 @@
         <v>43773</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="12"/>
@@ -6942,7 +6444,7 @@
         <v>43775</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="12"/>
@@ -6954,7 +6456,7 @@
         <v>43778</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="12"/>
@@ -6966,7 +6468,7 @@
         <v>43781</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="12"/>
@@ -6978,7 +6480,7 @@
         <v>43782</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="12"/>
@@ -6990,7 +6492,7 @@
         <v>43783</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="12"/>
@@ -7002,7 +6504,7 @@
         <v>43788</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="12"/>
@@ -7014,7 +6516,7 @@
         <v>43789</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -7026,7 +6528,7 @@
         <v>43877</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>358</v>
+        <v>162</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="12"/>
@@ -7038,10 +6540,10 @@
         <v>43897</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>379</v>
+        <v>172</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>378</v>
+        <v>171</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -7050,10 +6552,10 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>381</v>
+        <v>174</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>380</v>
+        <v>173</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
@@ -7062,10 +6564,10 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11" t="s">
-        <v>385</v>
+        <v>176</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>386</v>
+        <v>177</v>
       </c>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
@@ -7073,11 +6575,11 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="28">
+      <c r="B18" s="22">
         <v>43872</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>389</v>
+        <v>178</v>
       </c>
       <c r="D18" s="12"/>
       <c r="E18" s="12"/>
@@ -7089,7 +6591,7 @@
         <v>12</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>394</v>
+        <v>179</v>
       </c>
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
@@ -7101,7 +6603,7 @@
         <v>15</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>399</v>
+        <v>180</v>
       </c>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
@@ -7113,7 +6615,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>403</v>
+        <v>181</v>
       </c>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
@@ -7125,66 +6627,66 @@
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>405</v>
+        <v>182</v>
       </c>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="32">
+      <c r="B23" s="25">
         <v>20</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>410</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="32">
+      <c r="B24" s="25">
         <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>412</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="32">
+      <c r="B25" s="25">
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>382</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="32">
+      <c r="B26" s="25">
         <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="32">
+      <c r="B27" s="25">
         <v>25</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>420</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="33">
+      <c r="B28" s="26">
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>421</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="32">
+      <c r="B29" s="25">
         <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>424</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -7192,7 +6694,7 @@
         <v>43891</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>425</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -7200,7 +6702,7 @@
         <v>43892</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>428</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -7208,7 +6710,7 @@
         <v>43893</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>429</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
@@ -7216,7 +6718,7 @@
         <v>43894</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>432</v>
+        <v>192</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
@@ -7224,7 +6726,7 @@
         <v>43895</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>435</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
@@ -7232,7 +6734,7 @@
         <v>43896</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>437</v>
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
@@ -7240,7 +6742,7 @@
         <v>43897</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>441</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
@@ -7248,109 +6750,59 @@
         <v>43898</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>446</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="1">
-        <v>43900</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>450</v>
-      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B39" s="1">
-        <v>43902</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>454</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="1">
-        <v>43904</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>460</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="1">
-        <v>43905</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>462</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="1">
-        <v>43906</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>463</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="1">
-        <v>43907</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>464</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="1">
-        <v>43908</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>465</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="1">
-        <v>43911</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>466</v>
-      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="4"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="1">
-        <v>43912</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>472</v>
-      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="1">
-        <v>43914</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>473</v>
-      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="4"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="1">
-        <v>43918</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>477</v>
-      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="4"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="1">
-        <v>43919</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>480</v>
-      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="4"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="1">
-        <v>43920</v>
-      </c>
+      <c r="B50" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -7380,44 +6832,18 @@
     <hyperlink ref="C35" r:id="rId23" xr:uid="{8CB8ABF3-B4E2-47EB-AB3D-53A1F6E57B66}"/>
     <hyperlink ref="C36" r:id="rId24" xr:uid="{0654B441-A5F3-433A-9EE5-A43B32B14E36}"/>
     <hyperlink ref="C37" r:id="rId25" xr:uid="{8383330E-B180-40AA-B1CC-90EF5FFB28DF}"/>
-    <hyperlink ref="C38" r:id="rId26" xr:uid="{7A46CB67-A6B5-44C2-814D-59F4855091D9}"/>
-    <hyperlink ref="C39" r:id="rId27" xr:uid="{CF5FA74B-6B9A-48D6-B79E-2E51178C4DA0}"/>
-    <hyperlink ref="C40" r:id="rId28" xr:uid="{571CCECB-5F23-4015-A24B-4EE540B24021}"/>
-    <hyperlink ref="C41" r:id="rId29" xr:uid="{F25C86E3-C179-4A43-9492-DB54812A16DF}"/>
-    <hyperlink ref="C42" r:id="rId30" xr:uid="{9C9FFC07-5B18-43DB-8347-75D61150DBC7}"/>
-    <hyperlink ref="C43" r:id="rId31" xr:uid="{DFFD5465-449E-4399-A1BA-A894C464BF65}"/>
-    <hyperlink ref="C44" r:id="rId32" xr:uid="{F868C8FC-6379-4803-9EC4-0F812BACD96B}"/>
-    <hyperlink ref="C45" r:id="rId33" xr:uid="{9B9D4A22-9BDE-40E0-9460-3D86ADE4CDD1}"/>
-    <hyperlink ref="C46" r:id="rId34" xr:uid="{098351FC-5589-4B79-8D09-A1E85BD28292}"/>
-    <hyperlink ref="C47" r:id="rId35" xr:uid="{91272625-2236-4ADE-B510-58CB761B80AF}"/>
-    <hyperlink ref="C48" r:id="rId36" xr:uid="{19378582-9C21-46EA-80F2-FEEAD11E519B}"/>
-    <hyperlink ref="C49" r:id="rId37" xr:uid="{893AC822-4D2D-4901-962A-D9F1B85C0C40}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId38"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId26"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF6E018-BD46-45F6-85A3-605BEB5FED4F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6DB33B-2212-47A2-B730-D0EAFF285240}">
   <dimension ref="A1:I453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7428,7 +6854,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7446,149 +6872,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43783</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>106</v>
-      </c>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43783</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>108</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="37">
-        <v>43990</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>457</v>
-      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="37">
-        <v>43991</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>459</v>
-      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="4"/>
       <c r="I5" t="s">
-        <v>469</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="37">
-        <v>44004</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>470</v>
-      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="37">
-        <v>44005</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>471</v>
-      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="4" t="s">
-        <v>475</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="4" t="s">
-        <v>478</v>
-      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="4" t="s">
-        <v>483</v>
-      </c>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="4" t="s">
-        <v>487</v>
-      </c>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="37">
-        <v>44122</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>492</v>
-      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="37">
-        <v>44123</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>495</v>
-      </c>
+      <c r="B13" s="29"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="37">
-        <v>44125</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>496</v>
-      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="37">
-        <v>44134</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>504</v>
-      </c>
+      <c r="B15" s="29"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="B19" s="29"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -8908,34 +8282,20 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{9D36C6E4-FA1B-41F3-A901-B4C61BBFD5DF}"/>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{17799F49-1821-4161-BB31-CFF3D6D443CF}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{5EE00BDA-82F9-4EA0-AE2E-F530EEFD8288}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{14649D0D-B1FE-4D94-B98C-D2C6C5C5F049}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{EAAFAEF7-7E19-4D03-BB43-94F57AF7E207}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{C6001ED0-D388-40F2-AB84-66B1F2E2E2BD}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{FB80936A-8A28-41CB-B07B-CCCF20649E07}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{DAFD8468-DF23-4609-9D65-1A863BD9589E}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{C4135041-893B-4E5D-BA79-E2ED37442D10}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{50C063D5-EEFC-4FDF-86D0-1D92530333EB}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{42F1D7AA-21A1-4FB7-8E38-DDA4A3E52BBE}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{D8294B5A-1EAA-4EE0-AD5D-8D6BE291ADBF}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{9DA4A443-6652-40D8-9EFF-29222BF84C3C}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{A292DBAC-8FE6-48A7-8F2B-DC73E433BEBB}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{D65A91A7-EF9D-4E4F-8440-36AFDD115CB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7735F19-EF15-48F6-B888-702112A6B03A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -8947,7 +8307,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -8965,200 +8325,98 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>43769</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="3"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43769</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43773</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43774</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43775</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43775</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>89</v>
-      </c>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="C7" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{98CE0ED6-AC6A-4D1C-9A57-E6997AD4D4BF}"/>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{478F9301-75E8-420B-BFDA-EF738A87381F}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{F802EC1E-2DDF-4B0E-97C3-B92D11D830E5}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{95A2AC43-5316-41BD-B651-6D8F20E86128}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{EB37E678-8B0B-4E1D-B2AD-F405168C767F}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{0624DB2A-B7F2-4CD6-891F-51D1E174A14F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFCAE24-2413-43B5-9C67-C332C55714A6}">
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43883</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="M5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43905</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43954</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>316</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{EBAC21E1-6A19-4D59-B813-4A542EA3EB7A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{CEB386C4-FDEC-4434-A2C0-483D5CA564E8}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{664C4E3C-0E41-4B91-B2F1-5C99D5AE91BB}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{D4F1C260-F864-494C-9260-1DC08DEB4407}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{414898A7-67AF-4798-990B-4FC63C26922C}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{DB3884DB-6152-4AB2-8C96-1CA1AFB92EF1}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{FFD71E8B-7058-43D0-9AED-6472336ADE81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39996B19-10BE-4E75-832B-E97AAB0846FA}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFCAE24-2413-43B5-9C67-C332C55714A6}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="M5" sqref="M5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{EBAC21E1-6A19-4D59-B813-4A542EA3EB7A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39996B19-10BE-4E75-832B-E97AAB0846FA}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9169,7 +8427,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -9188,387 +8446,47 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43855</v>
-      </c>
-      <c r="B2" s="24">
-        <v>43647</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>269</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43877</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>359</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43883</v>
-      </c>
-      <c r="B4" s="1">
-        <v>43849</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>362</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43892</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>376</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43905</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>388</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>400</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B8" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>409</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43940</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>417</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43946</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" t="s">
-        <v>499</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{07BD18EE-94DA-450A-9889-7E3E65FDC8A9}"/>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3175F886-DC1E-4B8A-BCD5-5C7294FA7DBA}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{50E32730-1DEC-43A9-A8D4-89F1C88BE1BE}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{C044DC51-CDE3-4D49-887F-2EEF39860922}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{DABD511D-3597-429F-BC4A-5CF8D03C933F}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{A4D53564-51B5-40E2-B8B4-E10DA8505B36}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{86D0673A-D049-4977-B6B4-4646984D63BE}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{E8A72F7F-AC47-4A81-A224-C7E9E77CC64A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="68.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43781</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43782</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43783</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43784</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43785</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43788</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43789</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43796</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43797</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43801</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43802</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>43808</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>43809</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>43823</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>43824</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>43829</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>43830</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>43833</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>43834</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>43836</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>43838</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>43839</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>43842</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>43843</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{D353D55F-6669-4392-A8B2-F08165D05C29}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>